--- a/cloud_formation/ddbTableData/TableData.xlsx
+++ b/cloud_formation/ddbTableData/TableData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpotocar/Developer/Bloomtech/bd-team-project-project-kitty/src/CloudFormation/tableData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpotocar/Developer/Bloomtech/bd-team-project-project-kitty/cloud_formation/ddbTableData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E891E2-1D7F-E644-A88A-9DD75DB64474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6ED661-4060-6541-88F6-5823F57571AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="880" windowWidth="31060" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33520" yWindow="25520" windowWidth="31060" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="helper" sheetId="5" r:id="rId1"/>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C48076B-0585-1B4F-8315-4669D69A0D79}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1688,7 +1688,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f ca="1">_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^9)</f>
-        <v>471470477</v>
+        <v>923739977</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>133</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D2" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A2),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A2)-A2)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 353275695, 761707788, 360432542, 256805475 ]</v>
+        <v>[ 876055831, 637818676, 906799530, 794085645 ]</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">IF(ISNUMBER(A2),
@@ -1707,13 +1707,13 @@
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;C2&amp;CHAR(34)&amp;
 ", "&amp;CHAR(34)&amp;D$1&amp;CHAR(34)&amp;": "&amp;D2&amp;
 " },", "")</f>
-        <v>{ "id": "471470477", "firstName": "Leigh", "lastName": "Rabier", "friends": [ 353275695, 761707788, 360432542, 256805475 ] },</v>
+        <v>{ "id": "923739977", "firstName": "Leigh", "lastName": "Rabier", "friends": [ 876055831, 637818676, 906799530, 794085645 ] },</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A7" ca="1" si="0">_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^9)</f>
-        <v>353275695</v>
+        <v>876055831</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>135</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D3" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A3),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A3)-A3)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 471470477, 360432542, 256805475 ]</v>
+        <v>[ 923739977, 637818676, 589631133, 906799530, 794085645 ]</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F7" ca="1" si="1">IF(ISNUMBER(A3),
@@ -1732,13 +1732,13 @@
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;C3&amp;CHAR(34)&amp;
 ", "&amp;CHAR(34)&amp;D$1&amp;CHAR(34)&amp;": "&amp;D3&amp;
 " },", "")</f>
-        <v>{ "id": "353275695", "firstName": "Nydia", "lastName": "Perotti", "friends": [ 471470477, 360432542, 256805475 ] },</v>
+        <v>{ "id": "876055831", "firstName": "Nydia", "lastName": "Perotti", "friends": [ 923739977, 637818676, 589631133, 906799530, 794085645 ] },</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>941255051</v>
+        <v>637818676</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>137</v>
@@ -1748,17 +1748,17 @@
       </c>
       <c r="D4" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A4),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A4)-A4)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 761707788 ]</v>
+        <v>[ 923739977, 876055831, 589631133, 906799530, 794085645 ]</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "941255051", "firstName": "Valentijn", "lastName": "Flintoft", "friends": [ 761707788 ] },</v>
+        <v>{ "id": "637818676", "firstName": "Valentijn", "lastName": "Flintoft", "friends": [ 923739977, 876055831, 589631133, 906799530, 794085645 ] },</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>761707788</v>
+        <v>589631133</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>139</v>
@@ -1768,17 +1768,17 @@
       </c>
       <c r="D5" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A5),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A5)-A5)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 471470477, 941255051 ]</v>
+        <v>[ 876055831, 637818676, 794085645 ]</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "761707788", "firstName": "Nelle", "lastName": "Corbin", "friends": [ 471470477, 941255051 ] },</v>
+        <v>{ "id": "589631133", "firstName": "Nelle", "lastName": "Corbin", "friends": [ 876055831, 637818676, 794085645 ] },</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>360432542</v>
+        <v>906799530</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>141</v>
@@ -1788,17 +1788,17 @@
       </c>
       <c r="D6" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A6),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A6)-A6)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 471470477, 353275695, 256805475 ]</v>
+        <v>[ 923739977, 876055831, 637818676, 794085645 ]</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "360432542", "firstName": "Xerxes", "lastName": "Shutle", "friends": [ 471470477, 353275695, 256805475 ] },</v>
+        <v>{ "id": "906799530", "firstName": "Xerxes", "lastName": "Shutle", "friends": [ 923739977, 876055831, 637818676, 794085645 ] },</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>256805475</v>
+        <v>794085645</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>143</v>
@@ -1808,11 +1808,11 @@
       </c>
       <c r="D7" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">"[ " &amp; _xlfn.TEXTJOIN(", ",TRUE, _xlfn._xlws.FILTER(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A7),ABS(_xlfn._xlws.FILTER(INDIRECT(helper!$B$7), INDIRECT(helper!$B$7)&lt;&gt;A7)-A7)&lt;300000000)) &amp; " ]"</f>
-        <v>[ 471470477, 353275695, 360432542 ]</v>
+        <v>[ 923739977, 876055831, 637818676, 589631133, 906799530 ]</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{ "id": "256805475", "firstName": "Jone", "lastName": "Bartaletti", "friends": [ 471470477, 353275695, 360432542 ] },</v>
+        <v>{ "id": "794085645", "firstName": "Jone", "lastName": "Bartaletti", "friends": [ 923739977, 876055831, 637818676, 589631133, 906799530 ] },</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J2" sqref="J2:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,7 +1873,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f ca="1">_xlfn.CEILING.MATH((RAND()*0.9+0.1)*10^12)</f>
-        <v>400535778457</v>
+        <v>254438198713</v>
       </c>
       <c r="B2" s="4" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_xlfn.IFS(OR(G2="checking",G2="savings"),127000000001,OR(G2="credit",G2=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -1881,22 +1881,22 @@
       </c>
       <c r="C2" s="4" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>471470477</v>
+        <v>589631133</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f ca="1">D2&amp; " " &amp; G2</f>
-        <v>cohesive checking</v>
+        <f>D2</f>
+        <v>cohesive</v>
       </c>
       <c r="F2" s="5">
         <f ca="1">RAND()</f>
-        <v>4.656524363153558E-4</v>
+        <v>0.49360901225240905</v>
       </c>
       <c r="G2" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn.IFS(F2&lt;0.4, "checking", F2&lt;0.7, "savings", F2&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J2" s="5" t="str">
         <f ca="1">IF(ISNUMBER(A2),
@@ -1907,32 +1907,32 @@
 ", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G2&amp;CHAR(34)&amp;
 IF(G2="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H2,"")&amp;
 " },", "")</f>
-        <v>{ "accountNumber": 400535778457, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "cohesive checking", "type": "checking" },</v>
+        <v>{ "accountNumber": 254438198713, "routingNumber": 127000000001, "customerId": 589631133, "nickname": "cohesive", "type": "savings" },</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A30" ca="1" si="0">_xlfn.CEILING.MATH((RAND()*0.9+0.1)*10^12)</f>
-        <v>448414866651</v>
+        <v>685109477442</v>
       </c>
       <c r="B3" s="4" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xlfn.IFS(OR(G3="checking",G3="savings"),127000000001,OR(G3="credit",G3=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>2920905557</v>
+        <v>4875544142</v>
       </c>
       <c r="C3" s="4" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>256805475</v>
+        <v>637818676</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E30" ca="1" si="1">D3&amp; " " &amp; G3</f>
-        <v>maximized external</v>
+        <f t="shared" ref="E3:E30" si="1">D3</f>
+        <v>maximized</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F30" ca="1" si="2">RAND()</f>
-        <v>0.8388202123128935</v>
+        <v>0.79169325219407327</v>
       </c>
       <c r="G3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_xlfn.IFS(F3&lt;0.4, "checking", F3&lt;0.7, "savings", F3&lt;1, "external")</f>
@@ -1947,36 +1947,36 @@
 ", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G3&amp;CHAR(34)&amp;
 IF(G3="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H3,"")
 &amp;" },", "")</f>
-        <v>{ "accountNumber": 448414866651, "routingNumber": 2920905557, "customerId": 256805475, "nickname": "maximized external", "type": "external" },</v>
+        <v>{ "accountNumber": 685109477442, "routingNumber": 4875544142, "customerId": 637818676, "nickname": "maximized", "type": "external" },</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>451100491187</v>
+        <v>973891075646</v>
       </c>
       <c r="B4" s="4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">_xlfn.IFS(OR(G4="checking",G4="savings"),127000000001,OR(G4="credit",G4=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>5882321873</v>
+        <v>127000000001</v>
       </c>
       <c r="C4" s="4" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>360432542</v>
+        <v>794085645</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Multi-tiered external</v>
+        <f t="shared" si="1"/>
+        <v>Multi-tiered</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87959855119502861</v>
+        <v>0.41713145375933292</v>
       </c>
       <c r="G4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">_xlfn.IFS(F4&lt;0.4, "checking", F4&lt;0.7, "savings", F4&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J4" s="5" t="str">
         <f ca="1">IF(ISNUMBER(A4),
@@ -1987,13 +1987,13 @@
 ", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G4&amp;CHAR(34)&amp;
 IF(G4="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H4,"")
 &amp;" },", "")</f>
-        <v>{ "accountNumber": 451100491187, "routingNumber": 5882321873, "customerId": 360432542, "nickname": "Multi-tiered external", "type": "external" },</v>
+        <v>{ "accountNumber": 973891075646, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "Multi-tiered", "type": "savings" },</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>415908241586</v>
+        <v>228410255662</v>
       </c>
       <c r="B5" s="4" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xlfn.IFS(OR(G5="checking",G5="savings"),127000000001,OR(G5="credit",G5=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2001,25 +2001,25 @@
       </c>
       <c r="C5" s="4" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>941255051</v>
+        <v>876055831</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Balanced checking</v>
+        <f t="shared" si="1"/>
+        <v>Balanced</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9096658537198254E-2</v>
+        <v>0.67041515186305978</v>
       </c>
       <c r="G5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">_xlfn.IFS(F5&lt;0.4, "checking", F5&lt;0.7, "savings", F5&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A5),
+        <f t="shared" ref="J5:J36" ca="1" si="3">IF(ISNUMBER(A5),
 "{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A5&amp;
 ", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B5&amp;
 ", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C5&amp;
@@ -2027,93 +2027,79 @@
 ", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G5&amp;CHAR(34)&amp;
 IF(G5="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H5,"")
 &amp;" },", "")</f>
-        <v>{ "accountNumber": 415908241586, "routingNumber": 127000000001, "customerId": 941255051, "nickname": "Balanced checking", "type": "checking" },</v>
+        <v>{ "accountNumber": 228410255662, "routingNumber": 127000000001, "customerId": 876055831, "nickname": "Balanced", "type": "savings" },</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>124896572843</v>
+        <v>455810450311</v>
       </c>
       <c r="B6" s="4" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">_xlfn.IFS(OR(G6="checking",G6="savings"),127000000001,OR(G6="credit",G6=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>2859002743</v>
+        <v>242544574</v>
       </c>
       <c r="C6" s="4" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>761707788</v>
+        <v>637818676</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>help-desk external</v>
+        <f t="shared" si="1"/>
+        <v>help-desk</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89821968229449201</v>
+        <v>0.80685413028010056</v>
       </c>
       <c r="G6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.IFS(F6&lt;0.4, "checking", F6&lt;0.7, "savings", F6&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A6),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A6&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B6&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C6&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E6&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G6&amp;CHAR(34)&amp;
-IF(G6="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H6,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 124896572843, "routingNumber": 2859002743, "customerId": 761707788, "nickname": "help-desk external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 455810450311, "routingNumber": 242544574, "customerId": 637818676, "nickname": "help-desk", "type": "external" },</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>796355214780</v>
+        <v>863866434270</v>
       </c>
       <c r="B7" s="4" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">_xlfn.IFS(OR(G7="checking",G7="savings"),127000000001,OR(G7="credit",G7=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>7978219615</v>
+        <v>127000000001</v>
       </c>
       <c r="C7" s="4" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>256805475</v>
+        <v>637818676</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>system engine external</v>
+        <f t="shared" si="1"/>
+        <v>system engine</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96069200212860673</v>
+        <v>0.4189392231255139</v>
       </c>
       <c r="G7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.IFS(F7&lt;0.4, "checking", F7&lt;0.7, "savings", F7&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A7),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A7&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B7&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C7&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E7&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G7&amp;CHAR(34)&amp;
-IF(G7="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H7,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 796355214780, "routingNumber": 7978219615, "customerId": 256805475, "nickname": "system engine external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 863866434270, "routingNumber": 127000000001, "customerId": 637818676, "nickname": "system engine", "type": "savings" },</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>775440347177</v>
+        <v>771640338305</v>
       </c>
       <c r="B8" s="4" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">_xlfn.IFS(OR(G8="checking",G8="savings"),127000000001,OR(G8="credit",G8=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2121,39 +2107,32 @@
       </c>
       <c r="C8" s="4" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>923739977</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Fully-configurable savings</v>
+        <f t="shared" si="1"/>
+        <v>Fully-configurable</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50598367996296423</v>
+        <v>0.37752879101976322</v>
       </c>
       <c r="G8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">_xlfn.IFS(F8&lt;0.4, "checking", F8&lt;0.7, "savings", F8&lt;1, "external")</f>
-        <v>savings</v>
+        <v>checking</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A8),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A8&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B8&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C8&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E8&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G8&amp;CHAR(34)&amp;
-IF(G8="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H8,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 775440347177, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "Fully-configurable savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 771640338305, "routingNumber": 127000000001, "customerId": 923739977, "nickname": "Fully-configurable", "type": "checking" },</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>920756712810</v>
+        <v>154068856018</v>
       </c>
       <c r="B9" s="4" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">_xlfn.IFS(OR(G9="checking",G9="savings"),127000000001,OR(G9="credit",G9=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2161,39 +2140,32 @@
       </c>
       <c r="C9" s="4" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>906799530</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>mobile savings</v>
+        <f t="shared" si="1"/>
+        <v>mobile</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54114377206189634</v>
+        <v>0.25716581962998208</v>
       </c>
       <c r="G9" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">_xlfn.IFS(F9&lt;0.4, "checking", F9&lt;0.7, "savings", F9&lt;1, "external")</f>
-        <v>savings</v>
+        <v>checking</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A9),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A9&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B9&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C9&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E9&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G9&amp;CHAR(34)&amp;
-IF(G9="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H9,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 920756712810, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "mobile savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 154068856018, "routingNumber": 127000000001, "customerId": 906799530, "nickname": "mobile", "type": "checking" },</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>392343538980</v>
+        <v>477378744576</v>
       </c>
       <c r="B10" s="4" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">_xlfn.IFS(OR(G10="checking",G10="savings"),127000000001,OR(G10="credit",G10=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2201,79 +2173,65 @@
       </c>
       <c r="C10" s="4" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>256805475</v>
+        <v>906799530</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>157</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>foreground checking</v>
+        <f t="shared" si="1"/>
+        <v>foreground</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6931349998562557E-2</v>
+        <v>5.7696525725133507E-2</v>
       </c>
       <c r="G10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">_xlfn.IFS(F10&lt;0.4, "checking", F10&lt;0.7, "savings", F10&lt;1, "external")</f>
         <v>checking</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A10),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A10&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B10&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C10&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E10&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G10&amp;CHAR(34)&amp;
-IF(G10="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H10,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 392343538980, "routingNumber": 127000000001, "customerId": 256805475, "nickname": "foreground checking", "type": "checking" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 477378744576, "routingNumber": 127000000001, "customerId": 906799530, "nickname": "foreground", "type": "checking" },</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>147583745557</v>
+        <v>590761751601</v>
       </c>
       <c r="B11" s="4" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">_xlfn.IFS(OR(G11="checking",G11="savings"),127000000001,OR(G11="credit",G11=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>605432164</v>
+        <v>127000000001</v>
       </c>
       <c r="C11" s="4" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>360432542</v>
+        <v>794085645</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>contingency external</v>
+        <f t="shared" si="1"/>
+        <v>contingency</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72054404561832031</v>
+        <v>0.1681089828819905</v>
       </c>
       <c r="G11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">_xlfn.IFS(F11&lt;0.4, "checking", F11&lt;0.7, "savings", F11&lt;1, "external")</f>
-        <v>external</v>
+        <v>checking</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A11),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A11&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B11&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C11&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E11&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G11&amp;CHAR(34)&amp;
-IF(G11="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H11,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 147583745557, "routingNumber": 605432164, "customerId": 360432542, "nickname": "contingency external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 590761751601, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "contingency", "type": "checking" },</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>602971727973</v>
+        <v>745844482971</v>
       </c>
       <c r="B12" s="4" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">_xlfn.IFS(OR(G12="checking",G12="savings"),127000000001,OR(G12="credit",G12=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2281,39 +2239,32 @@
       </c>
       <c r="C12" s="4" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>761707788</v>
+        <v>589631133</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>maximized checking</v>
+        <f t="shared" si="1"/>
+        <v>maximized</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16361666284755572</v>
+        <v>0.4341059307261449</v>
       </c>
       <c r="G12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">_xlfn.IFS(F12&lt;0.4, "checking", F12&lt;0.7, "savings", F12&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A12),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A12&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B12&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C12&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E12&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G12&amp;CHAR(34)&amp;
-IF(G12="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H12,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 602971727973, "routingNumber": 127000000001, "customerId": 761707788, "nickname": "maximized checking", "type": "checking" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 745844482971, "routingNumber": 127000000001, "customerId": 589631133, "nickname": "maximized", "type": "savings" },</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>611022312294</v>
+        <v>810077691050</v>
       </c>
       <c r="B13" s="4" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">_xlfn.IFS(OR(G13="checking",G13="savings"),127000000001,OR(G13="credit",G13=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2321,39 +2272,32 @@
       </c>
       <c r="C13" s="4" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>941255051</v>
+        <v>794085645</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>reciprocal savings</v>
+        <f t="shared" si="1"/>
+        <v>reciprocal</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56429884053847579</v>
+        <v>0.30902840412901089</v>
       </c>
       <c r="G13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">_xlfn.IFS(F13&lt;0.4, "checking", F13&lt;0.7, "savings", F13&lt;1, "external")</f>
-        <v>savings</v>
+        <v>checking</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A13),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A13&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B13&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C13&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E13&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G13&amp;CHAR(34)&amp;
-IF(G13="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H13,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 611022312294, "routingNumber": 127000000001, "customerId": 941255051, "nickname": "reciprocal savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 810077691050, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "reciprocal", "type": "checking" },</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>942613689574</v>
+        <v>201893813588</v>
       </c>
       <c r="B14" s="4" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">_xlfn.IFS(OR(G14="checking",G14="savings"),127000000001,OR(G14="credit",G14=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2361,159 +2305,131 @@
       </c>
       <c r="C14" s="4" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>471470477</v>
+        <v>876055831</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>bifurcated savings</v>
+        <f t="shared" si="1"/>
+        <v>bifurcated</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49065185462975069</v>
+        <v>0.50536254040687145</v>
       </c>
       <c r="G14" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">_xlfn.IFS(F14&lt;0.4, "checking", F14&lt;0.7, "savings", F14&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A14),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A14&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B14&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C14&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E14&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G14&amp;CHAR(34)&amp;
-IF(G14="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H14,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 942613689574, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "bifurcated savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 201893813588, "routingNumber": 127000000001, "customerId": 876055831, "nickname": "bifurcated", "type": "savings" },</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>841242350153</v>
+        <v>306781755424</v>
       </c>
       <c r="B15" s="4" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">_xlfn.IFS(OR(G15="checking",G15="savings"),127000000001,OR(G15="credit",G15=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <v>73652204</v>
       </c>
       <c r="C15" s="4" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>794085645</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>synergy savings</v>
+        <f t="shared" si="1"/>
+        <v>synergy</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65469908489421647</v>
+        <v>0.77742350036326613</v>
       </c>
       <c r="G15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">_xlfn.IFS(F15&lt;0.4, "checking", F15&lt;0.7, "savings", F15&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A15),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A15&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B15&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C15&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E15&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G15&amp;CHAR(34)&amp;
-IF(G15="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H15,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 841242350153, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "synergy savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 306781755424, "routingNumber": 73652204, "customerId": 794085645, "nickname": "synergy", "type": "external" },</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>317595283947</v>
+        <v>567751798401</v>
       </c>
       <c r="B16" s="4" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">_xlfn.IFS(OR(G16="checking",G16="savings"),127000000001,OR(G16="credit",G16=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <v>3822575883</v>
       </c>
       <c r="C16" s="4" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>471470477</v>
+        <v>637818676</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>migration savings</v>
+        <f t="shared" si="1"/>
+        <v>migration</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59444535157301248</v>
+        <v>0.92111426020175058</v>
       </c>
       <c r="G16" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">_xlfn.IFS(F16&lt;0.4, "checking", F16&lt;0.7, "savings", F16&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J16" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A16),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A16&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B16&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C16&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E16&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G16&amp;CHAR(34)&amp;
-IF(G16="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H16,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 317595283947, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "migration savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 567751798401, "routingNumber": 3822575883, "customerId": 637818676, "nickname": "migration", "type": "external" },</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>463566446195</v>
+        <v>968412565877</v>
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xlfn.IFS(OR(G17="checking",G17="savings"),127000000001,OR(G17="credit",G17=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>229816752</v>
+        <v>127000000001</v>
       </c>
       <c r="C17" s="4" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>761707788</v>
+        <v>637818676</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>analyzing external</v>
+        <f t="shared" si="1"/>
+        <v>analyzing</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98910547859617837</v>
+        <v>4.7281533319209479E-2</v>
       </c>
       <c r="G17" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">_xlfn.IFS(F17&lt;0.4, "checking", F17&lt;0.7, "savings", F17&lt;1, "external")</f>
-        <v>external</v>
+        <v>checking</v>
       </c>
       <c r="J17" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A17),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A17&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B17&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C17&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E17&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G17&amp;CHAR(34)&amp;
-IF(G17="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H17,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 463566446195, "routingNumber": 229816752, "customerId": 761707788, "nickname": "analyzing external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 968412565877, "routingNumber": 127000000001, "customerId": 637818676, "nickname": "analyzing", "type": "checking" },</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>697694136927</v>
+        <v>750266561847</v>
       </c>
       <c r="B18" s="4" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">_xlfn.IFS(OR(G18="checking",G18="savings"),127000000001,OR(G18="credit",G18=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2521,39 +2437,32 @@
       </c>
       <c r="C18" s="4" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>941255051</v>
+        <v>794085645</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Robust savings</v>
+        <f t="shared" si="1"/>
+        <v>Robust</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44771074705567049</v>
+        <v>0.48832227244737059</v>
       </c>
       <c r="G18" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">_xlfn.IFS(F18&lt;0.4, "checking", F18&lt;0.7, "savings", F18&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A18),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A18&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B18&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C18&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E18&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G18&amp;CHAR(34)&amp;
-IF(G18="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H18,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 697694136927, "routingNumber": 127000000001, "customerId": 941255051, "nickname": "Robust savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 750266561847, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "Robust", "type": "savings" },</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>917325385866</v>
+        <v>422842313902</v>
       </c>
       <c r="B19" s="4" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">_xlfn.IFS(OR(G19="checking",G19="savings"),127000000001,OR(G19="credit",G19=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2561,119 +2470,98 @@
       </c>
       <c r="C19" s="4" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>471470477</v>
+        <v>589631133</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>encoding checking</v>
+        <f t="shared" si="1"/>
+        <v>encoding</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27841287607119602</v>
+        <v>0.52778633467898906</v>
       </c>
       <c r="G19" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">_xlfn.IFS(F19&lt;0.4, "checking", F19&lt;0.7, "savings", F19&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J19" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A19),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A19&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B19&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C19&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E19&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G19&amp;CHAR(34)&amp;
-IF(G19="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H19,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 917325385866, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "encoding checking", "type": "checking" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 422842313902, "routingNumber": 127000000001, "customerId": 589631133, "nickname": "encoding", "type": "savings" },</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>201485841067</v>
+        <v>697163844059</v>
       </c>
       <c r="B20" s="4" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">_xlfn.IFS(OR(G20="checking",G20="savings"),127000000001,OR(G20="credit",G20=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>2373465851</v>
+        <v>127000000001</v>
       </c>
       <c r="C20" s="4" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>360432542</v>
+        <v>923739977</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Versatile external</v>
+        <f t="shared" si="1"/>
+        <v>Versatile</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75354763872987973</v>
+        <v>0.28692984038776648</v>
       </c>
       <c r="G20" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">_xlfn.IFS(F20&lt;0.4, "checking", F20&lt;0.7, "savings", F20&lt;1, "external")</f>
-        <v>external</v>
+        <v>checking</v>
       </c>
       <c r="J20" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A20),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A20&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B20&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C20&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E20&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G20&amp;CHAR(34)&amp;
-IF(G20="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H20,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 201485841067, "routingNumber": 2373465851, "customerId": 360432542, "nickname": "Versatile external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 697163844059, "routingNumber": 127000000001, "customerId": 923739977, "nickname": "Versatile", "type": "checking" },</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>983493971351</v>
+        <v>398225850477</v>
       </c>
       <c r="B21" s="4" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">_xlfn.IFS(OR(G21="checking",G21="savings"),127000000001,OR(G21="credit",G21=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>8076089332</v>
+        <v>127000000001</v>
       </c>
       <c r="C21" s="4" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>794085645</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>4th generation external</v>
+        <f t="shared" si="1"/>
+        <v>4th generation</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94104123530480299</v>
+        <v>0.62552434708209692</v>
       </c>
       <c r="G21" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">_xlfn.IFS(F21&lt;0.4, "checking", F21&lt;0.7, "savings", F21&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A21),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A21&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B21&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C21&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E21&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G21&amp;CHAR(34)&amp;
-IF(G21="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H21,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 983493971351, "routingNumber": 8076089332, "customerId": 353275695, "nickname": "4th generation external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 398225850477, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "4th generation", "type": "savings" },</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>639474417673</v>
+        <v>869780232178</v>
       </c>
       <c r="B22" s="4" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">_xlfn.IFS(OR(G22="checking",G22="savings"),127000000001,OR(G22="credit",G22=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2681,159 +2569,131 @@
       </c>
       <c r="C22" s="4" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>256805475</v>
+        <v>589631133</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>archive checking</v>
+        <f t="shared" si="1"/>
+        <v>archive</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2765068525538159E-2</v>
+        <v>0.50055060098958271</v>
       </c>
       <c r="G22" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">_xlfn.IFS(F22&lt;0.4, "checking", F22&lt;0.7, "savings", F22&lt;1, "external")</f>
-        <v>checking</v>
+        <v>savings</v>
       </c>
       <c r="J22" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A22),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A22&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B22&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C22&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E22&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G22&amp;CHAR(34)&amp;
-IF(G22="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H22,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 639474417673, "routingNumber": 127000000001, "customerId": 256805475, "nickname": "archive checking", "type": "checking" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 869780232178, "routingNumber": 127000000001, "customerId": 589631133, "nickname": "archive", "type": "savings" },</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>880440266700</v>
+        <v>627541466323</v>
       </c>
       <c r="B23" s="4" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xlfn.IFS(OR(G23="checking",G23="savings"),127000000001,OR(G23="credit",G23=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>7611046406</v>
+        <v>127000000001</v>
       </c>
       <c r="C23" s="4" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>794085645</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Balanced external</v>
+        <f t="shared" si="1"/>
+        <v>Balanced</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98521892570440395</v>
+        <v>0.58421106485715146</v>
       </c>
       <c r="G23" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">_xlfn.IFS(F23&lt;0.4, "checking", F23&lt;0.7, "savings", F23&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J23" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A23),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A23&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B23&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C23&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E23&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G23&amp;CHAR(34)&amp;
-IF(G23="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H23,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 880440266700, "routingNumber": 7611046406, "customerId": 353275695, "nickname": "Balanced external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 627541466323, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "Balanced", "type": "savings" },</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>199201767490</v>
+        <v>384302539441</v>
       </c>
       <c r="B24" s="4" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">_xlfn.IFS(OR(G24="checking",G24="savings"),127000000001,OR(G24="credit",G24=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <v>4109757198</v>
       </c>
       <c r="C24" s="4" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>906799530</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Focused savings</v>
+        <f t="shared" si="1"/>
+        <v>Focused</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57012471370639395</v>
+        <v>0.72216222202166125</v>
       </c>
       <c r="G24" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">_xlfn.IFS(F24&lt;0.4, "checking", F24&lt;0.7, "savings", F24&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J24" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A24),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A24&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B24&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C24&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E24&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G24&amp;CHAR(34)&amp;
-IF(G24="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H24,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 199201767490, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "Focused savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 384302539441, "routingNumber": 4109757198, "customerId": 906799530, "nickname": "Focused", "type": "external" },</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>891594573965</v>
+        <v>702136833361</v>
       </c>
       <c r="B25" s="4" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">_xlfn.IFS(OR(G25="checking",G25="savings"),127000000001,OR(G25="credit",G25=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>1283471061</v>
+        <v>127000000001</v>
       </c>
       <c r="C25" s="4" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>256805475</v>
+        <v>794085645</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>system-worthy external</v>
+        <f t="shared" si="1"/>
+        <v>system-worthy</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78260689277376627</v>
+        <v>0.11406915589122535</v>
       </c>
       <c r="G25" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">_xlfn.IFS(F25&lt;0.4, "checking", F25&lt;0.7, "savings", F25&lt;1, "external")</f>
-        <v>external</v>
+        <v>checking</v>
       </c>
       <c r="J25" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A25),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A25&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B25&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C25&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E25&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G25&amp;CHAR(34)&amp;
-IF(G25="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H25,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 891594573965, "routingNumber": 1283471061, "customerId": 256805475, "nickname": "system-worthy external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 702136833361, "routingNumber": 127000000001, "customerId": 794085645, "nickname": "system-worthy", "type": "checking" },</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>341796193771</v>
+        <v>450379505851</v>
       </c>
       <c r="B26" s="4" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">_xlfn.IFS(OR(G26="checking",G26="savings"),127000000001,OR(G26="credit",G26=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -2841,199 +2701,164 @@
       </c>
       <c r="C26" s="4" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>353275695</v>
+        <v>589631133</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>24/7 savings</v>
+        <f t="shared" si="1"/>
+        <v>24/7</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42520639348635714</v>
+        <v>0.41276464613130759</v>
       </c>
       <c r="G26" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">_xlfn.IFS(F26&lt;0.4, "checking", F26&lt;0.7, "savings", F26&lt;1, "external")</f>
         <v>savings</v>
       </c>
       <c r="J26" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A26),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A26&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B26&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C26&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E26&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G26&amp;CHAR(34)&amp;
-IF(G26="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H26,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 341796193771, "routingNumber": 127000000001, "customerId": 353275695, "nickname": "24/7 savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 450379505851, "routingNumber": 127000000001, "customerId": 589631133, "nickname": "24/7", "type": "savings" },</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>239639548370</v>
+        <v>198252465357</v>
       </c>
       <c r="B27" s="4" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">_xlfn.IFS(OR(G27="checking",G27="savings"),127000000001,OR(G27="credit",G27=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>4654744048</v>
+        <v>127000000001</v>
       </c>
       <c r="C27" s="4" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>761707788</v>
+        <v>876055831</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>171</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Re-contextualized external</v>
+        <f t="shared" si="1"/>
+        <v>Re-contextualized</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87906642585102757</v>
+        <v>0.69713520654276717</v>
       </c>
       <c r="G27" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">_xlfn.IFS(F27&lt;0.4, "checking", F27&lt;0.7, "savings", F27&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A27),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A27&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B27&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C27&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E27&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G27&amp;CHAR(34)&amp;
-IF(G27="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H27,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 239639548370, "routingNumber": 4654744048, "customerId": 761707788, "nickname": "Re-contextualized external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 198252465357, "routingNumber": 127000000001, "customerId": 876055831, "nickname": "Re-contextualized", "type": "savings" },</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>738295537013</v>
+        <v>373565734409</v>
       </c>
       <c r="B28" s="4" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">_xlfn.IFS(OR(G28="checking",G28="savings"),127000000001,OR(G28="credit",G28=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>127000000001</v>
+        <v>5416031908</v>
       </c>
       <c r="C28" s="4" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>471470477</v>
+        <v>589631133</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>intangible savings</v>
+        <f t="shared" si="1"/>
+        <v>intangible</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62942524590481752</v>
+        <v>0.80278958993491711</v>
       </c>
       <c r="G28" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">_xlfn.IFS(F28&lt;0.4, "checking", F28&lt;0.7, "savings", F28&lt;1, "external")</f>
-        <v>savings</v>
+        <v>external</v>
       </c>
       <c r="J28" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A28),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A28&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B28&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C28&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E28&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G28&amp;CHAR(34)&amp;
-IF(G28="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H28,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 738295537013, "routingNumber": 127000000001, "customerId": 471470477, "nickname": "intangible savings", "type": "savings" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 373565734409, "routingNumber": 5416031908, "customerId": 589631133, "nickname": "intangible", "type": "external" },</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>345064774916</v>
+        <v>771519988061</v>
       </c>
       <c r="B29" s="4" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">_xlfn.IFS(OR(G29="checking",G29="savings"),127000000001,OR(G29="credit",G29=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>6327683836</v>
+        <v>5319175241</v>
       </c>
       <c r="C29" s="4" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>256805475</v>
+        <v>589631133</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tangible external</v>
+        <f t="shared" si="1"/>
+        <v>tangible</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7344175704270286</v>
+        <v>0.97317573060163054</v>
       </c>
       <c r="G29" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">_xlfn.IFS(F29&lt;0.4, "checking", F29&lt;0.7, "savings", F29&lt;1, "external")</f>
         <v>external</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A29),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A29&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B29&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C29&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E29&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G29&amp;CHAR(34)&amp;
-IF(G29="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H29,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 345064774916, "routingNumber": 6327683836, "customerId": 256805475, "nickname": "tangible external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 771519988061, "routingNumber": 5319175241, "customerId": 589631133, "nickname": "tangible", "type": "external" },</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>905851799456</v>
+        <v>743989385362</v>
       </c>
       <c r="B30" s="7" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">_xlfn.IFS(OR(G30="checking",G30="savings"),127000000001,OR(G30="credit",G30=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
-        <v>8562654888</v>
+        <v>127000000001</v>
       </c>
       <c r="C30" s="7" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX(customers!A:A,   _xlfn.CEILING.MATH(RAND()*COUNT(customers!A:A)) +1)</f>
-        <v>761707788</v>
+        <v>923739977</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ameliorated external</v>
+        <f t="shared" si="1"/>
+        <v>Ameliorated</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98197188690773407</v>
+        <v>0.5670775267287248</v>
       </c>
       <c r="G30" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">_xlfn.IFS(F30&lt;0.4, "checking", F30&lt;0.7, "savings", F30&lt;1, "external")</f>
-        <v>external</v>
+        <v>savings</v>
       </c>
       <c r="J30" s="8" t="str">
-        <f ca="1">IF(ISNUMBER(A30),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A30&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B30&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C30&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E30&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G30&amp;CHAR(34)&amp;
-IF(G30="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H30,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 905851799456, "routingNumber": 8562654888, "customerId": 761707788, "nickname": "Ameliorated external", "type": "external" },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 743989385362, "routingNumber": 127000000001, "customerId": 923739977, "nickname": "Ameliorated", "type": "savings" },</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <f ca="1">IF(ISNUMBER(C31),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
-        <v>3751589599326980</v>
+        <f t="shared" ref="A31:A36" ca="1" si="4">IF(ISNUMBER(C31),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <v>8215830979251800</v>
       </c>
       <c r="B31" s="4" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">_xlfn.IFS(OR(G31="checking",G31="savings"),127000000001,OR(G31="credit",G31=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -3041,14 +2866,14 @@
       </c>
       <c r="C31" s="4" cm="1">
         <f t="array" aca="1" ref="C31:C36" ca="1">_xlfn._xlws.SORT(IF(MOD(_xlfn._xlws.FILTER(customers!A:A,ISNUMBER(customers!A:A)),2) =1,_xlfn._xlws.FILTER(customers!A:A,ISNUMBER(customers!A:A)),"" ))</f>
-        <v>256805475</v>
+        <v>589631133</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E31" s="4" t="str" cm="1">
-        <f t="array" aca="1" ref="E31:E36" ca="1">IF(ISNUMBER(C31:C36), D31:D36&amp; " " &amp; G31:G36, "")</f>
-        <v>task-force credit</v>
+        <f t="array" aca="1" ref="E31:E36" ca="1">IF(ISNUMBER(C31:C36), D31:D36, "")</f>
+        <v>task-force</v>
       </c>
       <c r="G31" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="G31:G36" ca="1">IF(ISNUMBER(C31:C36),"credit", "")</f>
@@ -3056,24 +2881,17 @@
       </c>
       <c r="H31" s="5" cm="1">
         <f t="array" aca="1" ref="H31:H36" ca="1">IF(ISNUMBER(C31:C36),_xlfn.CEILING.MATH(MOD(C31:C36,3500), 500), "")</f>
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="J31" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A31),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A31&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B31&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C31&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E31&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G31&amp;CHAR(34)&amp;
-IF(G31="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H31,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 3751589599326980, "routingNumber": 0, "customerId": 256805475, "nickname": "task-force credit", "type": "credit", "creditLimit": 3500 },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 8215830979251800, "routingNumber": 0, "customerId": 589631133, "nickname": "task-force", "type": "credit", "creditLimit": 500 },</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <f ca="1">IF(ISNUMBER(C32),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
-        <v>9341099753883370</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6688393282945650</v>
       </c>
       <c r="B32" s="4" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">_xlfn.IFS(OR(G32="checking",G32="savings"),127000000001,OR(G32="credit",G32=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -3081,14 +2899,14 @@
       </c>
       <c r="C32" s="4">
         <f ca="1"/>
-        <v>353275695</v>
+        <v>794085645</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E32" s="4" t="str">
         <f ca="1"/>
-        <v>Profound credit</v>
+        <v>Profound</v>
       </c>
       <c r="G32" s="5" t="str">
         <f ca="1"/>
@@ -3096,24 +2914,17 @@
       </c>
       <c r="H32" s="5">
         <f ca="1"/>
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A32),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A32&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B32&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C32&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E32&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G32&amp;CHAR(34)&amp;
-IF(G32="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H32,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 9341099753883370, "routingNumber": 0, "customerId": 353275695, "nickname": "Profound credit", "type": "credit", "creditLimit": 3500 },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 6688393282945650, "routingNumber": 0, "customerId": 794085645, "nickname": "Profound", "type": "credit", "creditLimit": 2500 },</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <f ca="1">IF(ISNUMBER(C33),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
-        <v>6825686927341160</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8755129424701580</v>
       </c>
       <c r="B33" s="4" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">_xlfn.IFS(OR(G33="checking",G33="savings"),127000000001,OR(G33="credit",G33=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -3121,14 +2932,14 @@
       </c>
       <c r="C33" s="4">
         <f ca="1"/>
-        <v>471470477</v>
+        <v>876055831</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E33" s="4" t="str">
         <f ca="1"/>
-        <v>data-warehouse credit</v>
+        <v>data-warehouse</v>
       </c>
       <c r="G33" s="5" t="str">
         <f ca="1"/>
@@ -3136,24 +2947,17 @@
       </c>
       <c r="H33" s="5">
         <f ca="1"/>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J33" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A33),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A33&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B33&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C33&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E33&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G33&amp;CHAR(34)&amp;
-IF(G33="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H33,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 6825686927341160, "routingNumber": 0, "customerId": 471470477, "nickname": "data-warehouse credit", "type": "credit", "creditLimit": 3000 },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 8755129424701580, "routingNumber": 0, "customerId": 876055831, "nickname": "data-warehouse", "type": "credit", "creditLimit": 2500 },</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <f ca="1">IF(ISNUMBER(C34),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
-        <v>9960815475030200</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1072336678888600</v>
       </c>
       <c r="B34" s="4" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">_xlfn.IFS(OR(G34="checking",G34="savings"),127000000001,OR(G34="credit",G34=""),0,TRUE(),_xlfn.CEILING.MATH(RAND()*POWER(10,10)))</f>
@@ -3161,14 +2965,14 @@
       </c>
       <c r="C34" s="4">
         <f ca="1"/>
-        <v>941255051</v>
+        <v>923739977</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E34" s="4" t="str">
         <f ca="1"/>
-        <v>Innovative credit</v>
+        <v>Innovative</v>
       </c>
       <c r="G34" s="5" t="str">
         <f ca="1"/>
@@ -3176,23 +2980,16 @@
       </c>
       <c r="H34" s="5">
         <f ca="1"/>
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="J34" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A34),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A34&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B34&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C34&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E34&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G34&amp;CHAR(34)&amp;
-IF(G34="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H34,"")
-&amp;" },", "")</f>
-        <v>{ "accountNumber": 9960815475030200, "routingNumber": 0, "customerId": 941255051, "nickname": "Innovative credit", "type": "credit", "creditLimit": 500 },</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{ "accountNumber": 1072336678888600, "routingNumber": 0, "customerId": 923739977, "nickname": "Innovative", "type": "credit", "creditLimit": 2500 },</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="str">
-        <f ca="1">IF(ISNUMBER(C35),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="B35" s="4" cm="1">
@@ -3219,20 +3016,13 @@
         <v/>
       </c>
       <c r="J35" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A35),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A35&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B35&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C35&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E35&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G35&amp;CHAR(34)&amp;
-IF(G35="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H35,"")
-&amp;" },", "")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
-        <f ca="1">IF(ISNUMBER(C36),_xlfn.FLOOR.MATH((RAND()*0.9+0.1)*10^16), "")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="B36" s="4" cm="1">
@@ -3259,14 +3049,7 @@
         <v/>
       </c>
       <c r="J36" s="5" t="str">
-        <f ca="1">IF(ISNUMBER(A36),
-"{ "&amp;CHAR(34)&amp;A$1&amp;CHAR(34)&amp;": "&amp;A36&amp;
-", "&amp;CHAR(34)&amp;B$1&amp;CHAR(34)&amp;": "&amp;B36&amp;
-", "&amp;CHAR(34)&amp;C$1&amp;CHAR(34)&amp;": "&amp;C36&amp;
-", "&amp;CHAR(34)&amp;E$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;E36&amp;CHAR(34)&amp;
-", "&amp;CHAR(34)&amp;G$1&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;G36&amp;CHAR(34)&amp;
-IF(G36="credit",", "&amp; CHAR(34)&amp;H$1&amp;CHAR(34)&amp;": "&amp;H36,"")
-&amp;" },", "")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -3280,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L281"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3347,11 +3130,11 @@
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>750266561847</v>
       </c>
       <c r="H2">
         <f ca="1">_xlfn.FLOOR.MATH((B2-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1641061133</v>
+        <v>1641028386</v>
       </c>
       <c r="I2">
         <f>_xlfn.FLOOR.MATH((B2-DATE(1970,1,1)+1)*86400)</f>
@@ -3367,7 +3150,7 @@
       </c>
       <c r="L2" t="str">
         <f ca="1">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G2&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H2&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I2&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J2&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K2&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1641061133, "completedDateTime": 1641081600, "amount": 59.99, "memo": "Microsoft Redmond WA null XXXXXXXXXXXX6681" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1641028386, "completedDateTime": 1641081600, "amount": 59.99, "memo": "Microsoft Redmond WA null XXXXXXXXXXXX6681" },</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3385,11 +3168,11 @@
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="0">_xlfn.FLOOR.MATH((B3-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1641081818</v>
+        <v>1641147914</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="1">_xlfn.FLOOR.MATH((B3-DATE(1970,1,1)+1)*86400)</f>
@@ -3405,7 +3188,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" ca="1" si="4">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G3&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H3&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I3&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J3&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K3&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1641081818, "completedDateTime": 1641168000, "amount": 13.88, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1641147914, "completedDateTime": 1641168000, "amount": 13.88, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3423,11 +3206,11 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>775440347177</v>
+        <v>771640338305</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>1641083755</v>
+        <v>1641098000</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -3443,7 +3226,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 775440347177, "submittedDateTime": 1641083755, "completedDateTime": 1641168000, "amount": 20.38, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1641098000, "completedDateTime": 1641168000, "amount": 20.38, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3461,11 +3244,11 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>590761751601</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>1641299414</v>
+        <v>1641307864</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -3481,7 +3264,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1641299414, "completedDateTime": 1641340800, "amount": 11.64, "memo": "35 PIADA FLORENCE FLORENCE KY" },</v>
+        <v>{ "accountNumber": 590761751601, "submittedDateTime": 1641307864, "completedDateTime": 1641340800, "amount": 11.64, "memo": "35 PIADA FLORENCE FLORENCE KY" },</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3499,11 +3282,11 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>863866434270</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>1641263597</v>
+        <v>1641283386</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -3519,7 +3302,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1641263597, "completedDateTime": 1641340800, "amount": 240.43, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 863866434270, "submittedDateTime": 1641283386, "completedDateTime": 1641340800, "amount": 240.43, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -3537,11 +3320,11 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>228410255662</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>1641347535</v>
+        <v>1641386769</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -3557,7 +3340,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1641347535, "completedDateTime": 1641427200, "amount": -49.53, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1641386769, "completedDateTime": 1641427200, "amount": -49.53, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3575,11 +3358,11 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>968412565877</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>1641418148</v>
+        <v>1641376118</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -3595,7 +3378,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1641418148, "completedDateTime": 1641427200, "amount": -59.44, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1641376118, "completedDateTime": 1641427200, "amount": -59.44, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3613,11 +3396,11 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>627541466323</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1641347044</v>
+        <v>1641373753</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -3633,7 +3416,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1641347044, "completedDateTime": 1641427200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1641373753, "completedDateTime": 1641427200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3651,11 +3434,11 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>771519988061</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>1641360058</v>
+        <v>1641360498</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -3671,7 +3454,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1641360058, "completedDateTime": 1641427200, "amount": 452.49, "memo": "CAPITAL GRILLE 0138052 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1641360498, "completedDateTime": 1641427200, "amount": 452.49, "memo": "CAPITAL GRILLE 0138052 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3689,11 +3472,11 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>968412565877</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1641504694</v>
+        <v>1641465323</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -3709,7 +3492,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1641504694, "completedDateTime": 1641513600, "amount": -2418.36, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1641465323, "completedDateTime": 1641513600, "amount": -2418.36, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3727,11 +3510,11 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>973891075646</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1641607045</v>
+        <v>1641677431</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -3747,7 +3530,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1641607045, "completedDateTime": 1641686400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1641677431, "completedDateTime": 1641686400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3765,11 +3548,11 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>567751798401</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>1642079444</v>
+        <v>1642044319</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -3785,7 +3568,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1642079444, "completedDateTime": 1642118400, "amount": 21.95, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1642044319, "completedDateTime": 1642118400, "amount": 21.95, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3803,11 +3586,11 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>341796193771</v>
+        <v>702136833361</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>1642563534</v>
+        <v>1642584578</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -3823,7 +3606,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1642563534, "completedDateTime": 1642636800, "amount": 48.08, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1642584578, "completedDateTime": 1642636800, "amount": 48.08, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3841,11 +3624,11 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>905851799456</v>
+        <v>398225850477</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>1642841268</v>
+        <v>1642890329</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -3861,7 +3644,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1642841268, "completedDateTime": 1642896000, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1642890329, "completedDateTime": 1642896000, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3879,11 +3662,11 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>639474417673</v>
+        <v>450379505851</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1643211693</v>
+        <v>1643200536</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -3899,7 +3682,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1643211693, "completedDateTime": 1643241600, "amount": 17.14, "memo": "FIVE GUYS OH 1056 QSR CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1643200536, "completedDateTime": 1643241600, "amount": 17.14, "memo": "FIVE GUYS OH 1056 QSR CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3917,11 +3700,11 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>199201767490</v>
+        <v>567751798401</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>1643358169</v>
+        <v>1643398824</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -3937,7 +3720,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1643358169, "completedDateTime": 1643414400, "amount": 30.92, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1643398824, "completedDateTime": 1643414400, "amount": 30.92, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3955,11 +3738,11 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>1643788100</v>
+        <v>1643839078</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -3975,7 +3758,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1643788100, "completedDateTime": 1643846400, "amount": 2.78, "memo": "LOWES #01585* CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1643839078, "completedDateTime": 1643846400, "amount": 2.78, "memo": "LOWES #01585* CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3993,11 +3776,11 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>199201767490</v>
+        <v>702136833361</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>1644009256</v>
+        <v>1643960770</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -4013,7 +3796,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1644009256, "completedDateTime": 1644019200, "amount": -1132.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1643960770, "completedDateTime": 1644019200, "amount": -1132.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4031,11 +3814,11 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>639474417673</v>
+        <v>567751798401</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>1643961377</v>
+        <v>1643994735</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -4051,7 +3834,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1643961377, "completedDateTime": 1644019200, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1643994735, "completedDateTime": 1644019200, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4069,11 +3852,11 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>1644082843</v>
+        <v>1644031517</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -4089,7 +3872,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1644082843, "completedDateTime": 1644105600, "amount": 11.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1644031517, "completedDateTime": 1644105600, "amount": 11.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4107,11 +3890,11 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>697163844059</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>1644219447</v>
+        <v>1644213367</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -4127,7 +3910,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1644219447, "completedDateTime": 1644278400, "amount": 39.55, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1644213367, "completedDateTime": 1644278400, "amount": 39.55, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4145,11 +3928,11 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>154068856018</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>1644234328</v>
+        <v>1644207179</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -4165,7 +3948,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1644234328, "completedDateTime": 1644278400, "amount": 11.56, "memo": "TVP INC/LA ROSA S NORW 513-984-3870 OH" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1644207179, "completedDateTime": 1644278400, "amount": 11.56, "memo": "TVP INC/LA ROSA S NORW 513-984-3870 OH" },</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4183,11 +3966,11 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>627541466323</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>1644328164</v>
+        <v>1644359255</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -4203,7 +3986,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1644328164, "completedDateTime": 1644364800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1644359255, "completedDateTime": 1644364800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -4221,11 +4004,11 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>199201767490</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>1644612306</v>
+        <v>1644619578</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -4241,7 +4024,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1644612306, "completedDateTime": 1644624000, "amount": 281.99, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1644619578, "completedDateTime": 1644624000, "amount": 281.99, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -4259,11 +4042,11 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>201893813588</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>1644612266</v>
+        <v>1644564856</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -4279,7 +4062,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1644612266, "completedDateTime": 1644624000, "amount": 156.75, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1644564856, "completedDateTime": 1644624000, "amount": 156.75, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4297,11 +4080,11 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>891594573965</v>
+        <v>384302539441</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>1645052061</v>
+        <v>1645002573</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -4317,7 +4100,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1645052061, "completedDateTime": 1645056000, "amount": -39.55, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 384302539441, "submittedDateTime": 1645002573, "completedDateTime": 1645056000, "amount": -39.55, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -4335,11 +4118,11 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>810077691050</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>1644998423</v>
+        <v>1644976684</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -4355,7 +4138,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1644998423, "completedDateTime": 1645056000, "amount": -109.49, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1644976684, "completedDateTime": 1645056000, "amount": -109.49, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -4373,11 +4156,11 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>306781755424</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>1646363776</v>
+        <v>1646384394</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -4393,7 +4176,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1646363776, "completedDateTime": 1646438400, "amount": -57.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1646384394, "completedDateTime": 1646438400, "amount": -57.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4411,11 +4194,11 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>697163844059</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>1646508754</v>
+        <v>1646486204</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -4431,7 +4214,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1646508754, "completedDateTime": 1646524800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1646486204, "completedDateTime": 1646524800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4449,11 +4232,11 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>1646551733</v>
+        <v>1646583689</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -4469,7 +4252,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1646551733, "completedDateTime": 1646611200, "amount": 48.33, "memo": "TST* FIFTY WEST BREWIN CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1646583689, "completedDateTime": 1646611200, "amount": 48.33, "memo": "TST* FIFTY WEST BREWIN CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -4487,11 +4270,11 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>771640338305</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>1646531146</v>
+        <v>1646565817</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -4507,7 +4290,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1646531146, "completedDateTime": 1646611200, "amount": 30.93, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1646565817, "completedDateTime": 1646611200, "amount": 30.93, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4525,11 +4308,11 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>627541466323</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>1646725816</v>
+        <v>1646733390</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -4545,7 +4328,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1646725816, "completedDateTime": 1646784000, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1646733390, "completedDateTime": 1646784000, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4563,11 +4346,11 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>1647001067</v>
+        <v>1647036661</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -4583,7 +4366,7 @@
       </c>
       <c r="L34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1647001067, "completedDateTime": 1647043200, "amount": 269.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1647036661, "completedDateTime": 1647043200, "amount": 269.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4601,11 +4384,11 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>702136833361</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>1646998667</v>
+        <v>1646995888</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -4621,7 +4404,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1646998667, "completedDateTime": 1647043200, "amount": 34.66, "memo": "DAVE &amp; BUSTERS #96 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1646995888, "completedDateTime": 1647043200, "amount": 34.66, "memo": "DAVE &amp; BUSTERS #96 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -4639,11 +4422,11 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>973891075646</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>1647136248</v>
+        <v>1647170440</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -4659,7 +4442,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1647136248, "completedDateTime": 1647216000, "amount": 9.64, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1647170440, "completedDateTime": 1647216000, "amount": 9.64, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4677,11 +4460,11 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>869780232178</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>1647459963</v>
+        <v>1647435541</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -4697,7 +4480,7 @@
       </c>
       <c r="L37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1647459963, "completedDateTime": 1647475200, "amount": 16.6, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1647435541, "completedDateTime": 1647475200, "amount": 16.6, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -4715,11 +4498,11 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>750266561847</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>1647523805</v>
+        <v>1647535031</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -4735,7 +4518,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1647523805, "completedDateTime": 1647561600, "amount": 97.13, "memo": "THIRD EYE BREWING CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1647535031, "completedDateTime": 1647561600, "amount": 97.13, "memo": "THIRD EYE BREWING CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4753,11 +4536,11 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>810077691050</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>1647792640</v>
+        <v>1647750054</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -4773,7 +4556,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1647792640, "completedDateTime": 1647820800, "amount": 14, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1647750054, "completedDateTime": 1647820800, "amount": 14, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4791,11 +4574,11 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>863866434270</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>1648092054</v>
+        <v>1648118098</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -4811,7 +4594,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1648092054, "completedDateTime": 1648166400, "amount": 13.93, "memo": "SPEEDWAY 05402 9369 ME MENTOR OH" },</v>
+        <v>{ "accountNumber": 863866434270, "submittedDateTime": 1648118098, "completedDateTime": 1648166400, "amount": 13.93, "memo": "SPEEDWAY 05402 9369 ME MENTOR OH" },</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -4829,11 +4612,11 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>450379505851</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>1648332065</v>
+        <v>1648289363</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -4849,7 +4632,7 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1648332065, "completedDateTime": 1648339200, "amount": 11.5, "memo": "TST* Noras Public Hous Willoughby Hi OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1648289363, "completedDateTime": 1648339200, "amount": 11.5, "memo": "TST* Noras Public Hous Willoughby Hi OH" },</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -4867,11 +4650,11 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>1648407452</v>
+        <v>1648423140</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -4887,7 +4670,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1648407452, "completedDateTime": 1648425600, "amount": 18, "memo": "TST* THE 1899 PUB WILLOUGHBY OH" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1648423140, "completedDateTime": 1648425600, "amount": 18, "memo": "TST* THE 1899 PUB WILLOUGHBY OH" },</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -4905,11 +4688,11 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>750266561847</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>1648393883</v>
+        <v>1648345659</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -4925,7 +4708,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1648393883, "completedDateTime": 1648425600, "amount": 22.48, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1648345659, "completedDateTime": 1648425600, "amount": 22.48, "memo": "DOUBLE DRAGON II CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -4943,11 +4726,11 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>398225850477</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>1648351056</v>
+        <v>1648420155</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -4963,7 +4746,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1648351056, "completedDateTime": 1648425600, "amount": 45.78, "memo": "KROGER #418 NORWOOD OH" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1648420155, "completedDateTime": 1648425600, "amount": 45.78, "memo": "KROGER #418 NORWOOD OH" },</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -4981,11 +4764,11 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>228410255662</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>1648350193</v>
+        <v>1648391136</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -5001,7 +4784,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1648350193, "completedDateTime": 1648425600, "amount": 6.38, "memo": "WENDY'S 219 MENTOR OH" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1648391136, "completedDateTime": 1648425600, "amount": 6.38, "memo": "WENDY'S 219 MENTOR OH" },</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -5019,11 +4802,11 @@
       </c>
       <c r="G46" s="2" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>450379505851</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>1648374343</v>
+        <v>1648389085</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -5039,7 +4822,7 @@
       </c>
       <c r="L46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1648374343, "completedDateTime": 1648425600, "amount": 20.25, "memo": "FIREBIRDS COLUMBUS COLUMBUS OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1648389085, "completedDateTime": 1648425600, "amount": 20.25, "memo": "FIREBIRDS COLUMBUS COLUMBUS OH" },</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -5057,11 +4840,11 @@
       </c>
       <c r="G47" s="2" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>611022312294</v>
+        <v>771519988061</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>1648569704</v>
+        <v>1648516938</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -5077,7 +4860,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1648569704, "completedDateTime": 1648598400, "amount": 13.48, "memo": "PENN STATION 10 - ECOM CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1648516938, "completedDateTime": 1648598400, "amount": 13.48, "memo": "PENN STATION 10 - ECOM CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -5095,11 +4878,11 @@
       </c>
       <c r="G48" s="2" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>384302539441</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>1648577953</v>
+        <v>1648587363</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -5115,7 +4898,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1648577953, "completedDateTime": 1648598400, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 384302539441, "submittedDateTime": 1648587363, "completedDateTime": 1648598400, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -5133,11 +4916,11 @@
       </c>
       <c r="G49" s="2" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>154068856018</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>1648613051</v>
+        <v>1648626231</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -5153,7 +4936,7 @@
       </c>
       <c r="L49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1648613051, "completedDateTime": 1648684800, "amount": -5, "memo": "DD DOORDASH POTBELLYS 8559731040 CA" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1648626231, "completedDateTime": 1648684800, "amount": -5, "memo": "DD DOORDASH POTBELLYS 8559731040 CA" },</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -5171,11 +4954,11 @@
       </c>
       <c r="G50" s="2" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>905851799456</v>
+        <v>455810450311</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>1648661182</v>
+        <v>1648682404</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -5191,7 +4974,7 @@
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1648661182, "completedDateTime": 1648684800, "amount": 1.51, "memo": "365 MARKET 888 432-32 TROY MI" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1648682404, "completedDateTime": 1648684800, "amount": 1.51, "memo": "365 MARKET 888 432-32 TROY MI" },</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -5209,11 +4992,11 @@
       </c>
       <c r="G51" s="2" cm="1">
         <f t="array" aca="1" ref="G51" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="0"/>
-        <v>1648660560</v>
+        <v>1648606968</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -5229,7 +5012,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1648660560, "completedDateTime": 1648684800, "amount": 11.91, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1648606968, "completedDateTime": 1648684800, "amount": 11.91, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -5247,11 +5030,11 @@
       </c>
       <c r="G52" s="2" cm="1">
         <f t="array" aca="1" ref="G52" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>775440347177</v>
+        <v>154068856018</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="0"/>
-        <v>1648829038</v>
+        <v>1648771564</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -5267,7 +5050,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 775440347177, "submittedDateTime": 1648829038, "completedDateTime": 1648857600, "amount": 15.49, "memo": "JIMMY JOHNS - 2554 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1648771564, "completedDateTime": 1648857600, "amount": 15.49, "memo": "JIMMY JOHNS - 2554 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -5285,11 +5068,11 @@
       </c>
       <c r="G53" s="2" cm="1">
         <f t="array" aca="1" ref="G53" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>611022312294</v>
+        <v>254438198713</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="0"/>
-        <v>1648869465</v>
+        <v>1648858771</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -5305,7 +5088,7 @@
       </c>
       <c r="L53" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1648869465, "completedDateTime": 1648944000, "amount": -595.48, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 254438198713, "submittedDateTime": 1648858771, "completedDateTime": 1648944000, "amount": -595.48, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -5323,11 +5106,11 @@
       </c>
       <c r="G54" s="2" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>750266561847</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="0"/>
-        <v>1648870701</v>
+        <v>1648858359</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -5343,7 +5126,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1648870701, "completedDateTime": 1648944000, "amount": 11.31, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1648858359, "completedDateTime": 1648944000, "amount": 11.31, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -5361,11 +5144,11 @@
       </c>
       <c r="G55" s="2" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>702136833361</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="0"/>
-        <v>1648979716</v>
+        <v>1648981416</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
@@ -5381,7 +5164,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1648979716, "completedDateTime": 1649030400, "amount": 48.48, "memo": "KROGER #465 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1648981416, "completedDateTime": 1649030400, "amount": 48.48, "memo": "KROGER #465 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -5399,11 +5182,11 @@
       </c>
       <c r="G56" s="2" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>317595283947</v>
+        <v>228410255662</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="0"/>
-        <v>1649085968</v>
+        <v>1649054503</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -5419,7 +5202,7 @@
       </c>
       <c r="L56" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1649085968, "completedDateTime": 1649116800, "amount": 140.25, "memo": "SERVICE FEE 888-658-5465 TN" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1649054503, "completedDateTime": 1649116800, "amount": 140.25, "memo": "SERVICE FEE 888-658-5465 TN" },</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -5437,11 +5220,11 @@
       </c>
       <c r="G57" s="2" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>201893813588</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="0"/>
-        <v>1649032275</v>
+        <v>1649060396</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -5457,7 +5240,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1649032275, "completedDateTime": 1649116800, "amount": 7500, "memo": "US TREAS TAX PYMT 888-658-5465 TN" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1649060396, "completedDateTime": 1649116800, "amount": 7500, "memo": "US TREAS TAX PYMT 888-658-5465 TN" },</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -5475,11 +5258,11 @@
       </c>
       <c r="G58" s="2" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>745844482971</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="0"/>
-        <v>1649101610</v>
+        <v>1649046226</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -5495,7 +5278,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1649101610, "completedDateTime": 1649116800, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 745844482971, "submittedDateTime": 1649046226, "completedDateTime": 1649116800, "amount": 16.1, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -5513,11 +5296,11 @@
       </c>
       <c r="G59" s="2" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>590761751601</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="0"/>
-        <v>1649180915</v>
+        <v>1649130853</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -5533,7 +5316,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1649180915, "completedDateTime": 1649203200, "amount": 11.48, "memo": "KFC G135916 NORWOOD OH" },</v>
+        <v>{ "accountNumber": 590761751601, "submittedDateTime": 1649130853, "completedDateTime": 1649203200, "amount": 11.48, "memo": "KFC G135916 NORWOOD OH" },</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -5551,11 +5334,11 @@
       </c>
       <c r="G60" s="2" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>745844482971</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="0"/>
-        <v>1649147503</v>
+        <v>1649202398</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -5571,7 +5354,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1649147503, "completedDateTime": 1649203200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
+        <v>{ "accountNumber": 745844482971, "submittedDateTime": 1649202398, "completedDateTime": 1649203200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5589,11 +5372,11 @@
       </c>
       <c r="G61" s="2" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>973891075646</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="0"/>
-        <v>1649250395</v>
+        <v>1649213317</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -5609,7 +5392,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1649250395, "completedDateTime": 1649289600, "amount": -7750, "memo": "PAYMENT THANK YOU" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1649213317, "completedDateTime": 1649289600, "amount": -7750, "memo": "PAYMENT THANK YOU" },</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -5627,11 +5410,11 @@
       </c>
       <c r="G62" s="2" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>810077691050</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="0"/>
-        <v>1649452938</v>
+        <v>1649422697</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -5647,7 +5430,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1649452938, "completedDateTime": 1649462400, "amount": 6.87, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1649422697, "completedDateTime": 1649462400, "amount": 6.87, "memo": "TACO BELL 15353 COVINGTON KY" },</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -5665,11 +5448,11 @@
       </c>
       <c r="G63" s="2" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>627541466323</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="0"/>
-        <v>1649415758</v>
+        <v>1649453603</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -5685,7 +5468,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1649415758, "completedDateTime": 1649462400, "amount": 390.84, "memo": "ACMETOOLS.COM 8773452263 ND" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1649453603, "completedDateTime": 1649462400, "amount": 390.84, "memo": "ACMETOOLS.COM 8773452263 ND" },</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -5703,11 +5486,11 @@
       </c>
       <c r="G64" s="2" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>199201767490</v>
+        <v>455810450311</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="0"/>
-        <v>1649413279</v>
+        <v>1649422223</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -5723,7 +5506,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1649413279, "completedDateTime": 1649462400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1649422223, "completedDateTime": 1649462400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5741,11 +5524,11 @@
       </c>
       <c r="G65" s="2" cm="1">
         <f t="array" aca="1" ref="G65" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>771519988061</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="0"/>
-        <v>1649615905</v>
+        <v>1649616524</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -5761,7 +5544,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1649615905, "completedDateTime": 1649635200, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1649616524, "completedDateTime": 1649635200, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -5779,11 +5562,11 @@
       </c>
       <c r="G66" s="2" cm="1">
         <f t="array" aca="1" ref="G66" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>450379505851</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="0"/>
-        <v>1649693350</v>
+        <v>1649700097</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
@@ -5799,7 +5582,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1649693350, "completedDateTime": 1649721600, "amount": 11.53, "memo": "SKYLINE CHILI DENT CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1649700097, "completedDateTime": 1649721600, "amount": 11.53, "memo": "SKYLINE CHILI DENT CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5817,11 +5600,11 @@
       </c>
       <c r="G67" s="2" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>869780232178</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H130" ca="1" si="5">_xlfn.FLOOR.MATH((B67-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1649823379</v>
+        <v>1649815335</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="6">_xlfn.FLOOR.MATH((B67-DATE(1970,1,1)+1)*86400)</f>
@@ -5837,7 +5620,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" ref="L67:L130" ca="1" si="9">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G67&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H67&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I67&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J67&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K67&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1649823379, "completedDateTime": 1649894400, "amount": 12.78, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1649815335, "completedDateTime": 1649894400, "amount": 12.78, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -5855,11 +5638,11 @@
       </c>
       <c r="G68" s="2" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>415908241586</v>
+        <v>685109477442</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="5"/>
-        <v>1650057389</v>
+        <v>1650032382</v>
       </c>
       <c r="I68">
         <f t="shared" si="6"/>
@@ -5875,7 +5658,7 @@
       </c>
       <c r="L68" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1650057389, "completedDateTime": 1650067200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1650032382, "completedDateTime": 1650067200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -5893,11 +5676,11 @@
       </c>
       <c r="G69" s="2" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>154068856018</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="5"/>
-        <v>1650107427</v>
+        <v>1650102590</v>
       </c>
       <c r="I69">
         <f t="shared" si="6"/>
@@ -5913,7 +5696,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1650107427, "completedDateTime": 1650153600, "amount": 173.08, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1650102590, "completedDateTime": 1650153600, "amount": 173.08, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5931,11 +5714,11 @@
       </c>
       <c r="G70" s="2" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>627541466323</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="5"/>
-        <v>1650227801</v>
+        <v>1650230099</v>
       </c>
       <c r="I70">
         <f t="shared" si="6"/>
@@ -5951,7 +5734,7 @@
       </c>
       <c r="L70" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1650227801, "completedDateTime": 1650240000, "amount": -35, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1650230099, "completedDateTime": 1650240000, "amount": -35, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -5969,11 +5752,11 @@
       </c>
       <c r="G71" s="2" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>750266561847</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="5"/>
-        <v>1650252989</v>
+        <v>1650281837</v>
       </c>
       <c r="I71">
         <f t="shared" si="6"/>
@@ -5989,7 +5772,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1650252989, "completedDateTime": 1650326400, "amount": 2354, "memo": "KY REVENUE DEPT 5028753733 KY" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1650281837, "completedDateTime": 1650326400, "amount": 2354, "memo": "KY REVENUE DEPT 5028753733 KY" },</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -6007,11 +5790,11 @@
       </c>
       <c r="G72" s="2" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>702136833361</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="5"/>
-        <v>1650377066</v>
+        <v>1650357256</v>
       </c>
       <c r="I72">
         <f t="shared" si="6"/>
@@ -6027,7 +5810,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1650377066, "completedDateTime": 1650412800, "amount": 59.55, "memo": "KROGER #355 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1650357256, "completedDateTime": 1650412800, "amount": 59.55, "memo": "KROGER #355 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -6045,11 +5828,11 @@
       </c>
       <c r="G73" s="2" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>306781755424</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="5"/>
-        <v>1650371583</v>
+        <v>1650354466</v>
       </c>
       <c r="I73">
         <f t="shared" si="6"/>
@@ -6065,7 +5848,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1650371583, "completedDateTime": 1650412800, "amount": 14.34, "memo": "EL TORO OF CINCINNATI CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1650354466, "completedDateTime": 1650412800, "amount": 14.34, "memo": "EL TORO OF CINCINNATI CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -6083,11 +5866,11 @@
       </c>
       <c r="G74" s="2" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="5"/>
-        <v>1650483636</v>
+        <v>1650457052</v>
       </c>
       <c r="I74">
         <f t="shared" si="6"/>
@@ -6103,7 +5886,7 @@
       </c>
       <c r="L74" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1650483636, "completedDateTime": 1650499200, "amount": 201.58, "memo": "INTUIT *TURBOTAX CL.INTUIT.COM CA" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1650457052, "completedDateTime": 1650499200, "amount": 201.58, "memo": "INTUIT *TURBOTAX CL.INTUIT.COM CA" },</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -6121,11 +5904,11 @@
       </c>
       <c r="G75" s="2" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>201893813588</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="5"/>
-        <v>1650718157</v>
+        <v>1650699705</v>
       </c>
       <c r="I75">
         <f t="shared" si="6"/>
@@ -6141,7 +5924,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1650718157, "completedDateTime": 1650758400, "amount": -624.26, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1650699705, "completedDateTime": 1650758400, "amount": -624.26, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -6159,11 +5942,11 @@
       </c>
       <c r="G76" s="2" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="5"/>
-        <v>1650849810</v>
+        <v>1650916539</v>
       </c>
       <c r="I76">
         <f t="shared" si="6"/>
@@ -6179,7 +5962,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1650849810, "completedDateTime": 1650931200, "amount": 29.72, "memo": "KROGER #465 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1650916539, "completedDateTime": 1650931200, "amount": 29.72, "memo": "KROGER #465 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -6197,11 +5980,11 @@
       </c>
       <c r="G77" s="2" cm="1">
         <f t="array" aca="1" ref="G77" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>771519988061</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="5"/>
-        <v>1651051621</v>
+        <v>1651031305</v>
       </c>
       <c r="I77">
         <f t="shared" si="6"/>
@@ -6217,7 +6000,7 @@
       </c>
       <c r="L77" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1651051621, "completedDateTime": 1651104000, "amount": 33.39, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1651031305, "completedDateTime": 1651104000, "amount": 33.39, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -6235,11 +6018,11 @@
       </c>
       <c r="G78" s="2" cm="1">
         <f t="array" aca="1" ref="G78" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>201893813588</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="5"/>
-        <v>1651555019</v>
+        <v>1651563451</v>
       </c>
       <c r="I78">
         <f t="shared" si="6"/>
@@ -6255,7 +6038,7 @@
       </c>
       <c r="L78" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1651555019, "completedDateTime": 1651622400, "amount": 15.39, "memo": "SP BLOWERBAND FAIRFAX VA" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1651563451, "completedDateTime": 1651622400, "amount": 15.39, "memo": "SP BLOWERBAND FAIRFAX VA" },</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6273,11 +6056,11 @@
       </c>
       <c r="G79" s="2" cm="1">
         <f t="array" aca="1" ref="G79" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>702136833361</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="5"/>
-        <v>1651574942</v>
+        <v>1651566832</v>
       </c>
       <c r="I79">
         <f t="shared" si="6"/>
@@ -6293,7 +6076,7 @@
       </c>
       <c r="L79" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1651574942, "completedDateTime": 1651622400, "amount": 91.62, "memo": "GRIOTS GARAGE 253-9222400 WA" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1651566832, "completedDateTime": 1651622400, "amount": 91.62, "memo": "GRIOTS GARAGE 253-9222400 WA" },</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6311,11 +6094,11 @@
       </c>
       <c r="G80" s="2" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>199201767490</v>
+        <v>198252465357</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="5"/>
-        <v>1651674037</v>
+        <v>1651668659</v>
       </c>
       <c r="I80">
         <f t="shared" si="6"/>
@@ -6331,7 +6114,7 @@
       </c>
       <c r="L80" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1651674037, "completedDateTime": 1651708800, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 198252465357, "submittedDateTime": 1651668659, "completedDateTime": 1651708800, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -6349,11 +6132,11 @@
       </c>
       <c r="G81" s="2" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="5"/>
-        <v>1651741159</v>
+        <v>1651766892</v>
       </c>
       <c r="I81">
         <f t="shared" si="6"/>
@@ -6369,7 +6152,7 @@
       </c>
       <c r="L81" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1651741159, "completedDateTime": 1651795200, "amount": 198.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1651766892, "completedDateTime": 1651795200, "amount": 198.87, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -6387,11 +6170,11 @@
       </c>
       <c r="G82" s="2" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="5"/>
-        <v>1651776462</v>
+        <v>1651758913</v>
       </c>
       <c r="I82">
         <f t="shared" si="6"/>
@@ -6407,7 +6190,7 @@
       </c>
       <c r="L82" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1651776462, "completedDateTime": 1651795200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1651758913, "completedDateTime": 1651795200, "amount": 12.93, "memo": "GOOGLE *YouTubePremium g.co/helppay# CA" },</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -6425,11 +6208,11 @@
       </c>
       <c r="G83" s="2" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>415908241586</v>
+        <v>702136833361</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="5"/>
-        <v>1651834057</v>
+        <v>1651873705</v>
       </c>
       <c r="I83">
         <f t="shared" si="6"/>
@@ -6445,7 +6228,7 @@
       </c>
       <c r="L83" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1651834057, "completedDateTime": 1651881600, "amount": 348, "memo": "VUE*COMPTIA MRKETPLCE 800-511-3478 MN" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1651873705, "completedDateTime": 1651881600, "amount": 348, "memo": "VUE*COMPTIA MRKETPLCE 800-511-3478 MN" },</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -6463,11 +6246,11 @@
       </c>
       <c r="G84" s="2" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>983493971351</v>
+        <v>198252465357</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="5"/>
-        <v>1652020225</v>
+        <v>1651993222</v>
       </c>
       <c r="I84">
         <f t="shared" si="6"/>
@@ -6483,7 +6266,7 @@
       </c>
       <c r="L84" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 983493971351, "submittedDateTime": 1652020225, "completedDateTime": 1652054400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 198252465357, "submittedDateTime": 1651993222, "completedDateTime": 1652054400, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -6501,11 +6284,11 @@
       </c>
       <c r="G85" s="2" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>771640338305</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="5"/>
-        <v>1652132059</v>
+        <v>1652068774</v>
       </c>
       <c r="I85">
         <f t="shared" si="6"/>
@@ -6521,7 +6304,7 @@
       </c>
       <c r="L85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1652132059, "completedDateTime": 1652140800, "amount": 322.32, "memo": "LOWES #00907* 866-483-7521 NC" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1652068774, "completedDateTime": 1652140800, "amount": 322.32, "memo": "LOWES #00907* 866-483-7521 NC" },</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -6539,11 +6322,11 @@
       </c>
       <c r="G86" s="2" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="5"/>
-        <v>1652066540</v>
+        <v>1652087819</v>
       </c>
       <c r="I86">
         <f t="shared" si="6"/>
@@ -6559,7 +6342,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1652066540, "completedDateTime": 1652140800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1652087819, "completedDateTime": 1652140800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -6577,11 +6360,11 @@
       </c>
       <c r="G87" s="2" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>455810450311</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="5"/>
-        <v>1652117715</v>
+        <v>1652068218</v>
       </c>
       <c r="I87">
         <f t="shared" si="6"/>
@@ -6597,7 +6380,7 @@
       </c>
       <c r="L87" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1652117715, "completedDateTime": 1652140800, "amount": 11.97, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1652068218, "completedDateTime": 1652140800, "amount": 11.97, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -6615,11 +6398,11 @@
       </c>
       <c r="G88" s="2" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>415908241586</v>
+        <v>869780232178</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="5"/>
-        <v>1652354283</v>
+        <v>1652325662</v>
       </c>
       <c r="I88">
         <f t="shared" si="6"/>
@@ -6635,7 +6418,7 @@
       </c>
       <c r="L88" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1652354283, "completedDateTime": 1652400000, "amount": 20.25, "memo": "PMT*OH BUREAU MOTOR VE COLUMBUS OH" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1652325662, "completedDateTime": 1652400000, "amount": 20.25, "memo": "PMT*OH BUREAU MOTOR VE COLUMBUS OH" },</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -6653,11 +6436,11 @@
       </c>
       <c r="G89" s="2" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="5"/>
-        <v>1652475054</v>
+        <v>1652417738</v>
       </c>
       <c r="I89">
         <f t="shared" si="6"/>
@@ -6673,7 +6456,7 @@
       </c>
       <c r="L89" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1652475054, "completedDateTime": 1652486400, "amount": -62, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1652417738, "completedDateTime": 1652486400, "amount": -62, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -6691,11 +6474,11 @@
       </c>
       <c r="G90" s="2" cm="1">
         <f t="array" aca="1" ref="G90" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>450379505851</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="5"/>
-        <v>1652614820</v>
+        <v>1652590939</v>
       </c>
       <c r="I90">
         <f t="shared" si="6"/>
@@ -6711,7 +6494,7 @@
       </c>
       <c r="L90" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1652614820, "completedDateTime": 1652659200, "amount": 58.27, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1652590939, "completedDateTime": 1652659200, "amount": 58.27, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6729,11 +6512,11 @@
       </c>
       <c r="G91" s="2" cm="1">
         <f t="array" aca="1" ref="G91" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>422842313902</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="5"/>
-        <v>1652624776</v>
+        <v>1652623862</v>
       </c>
       <c r="I91">
         <f t="shared" si="6"/>
@@ -6749,7 +6532,7 @@
       </c>
       <c r="L91" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1652624776, "completedDateTime": 1652659200, "amount": 11.65, "memo": "MCALISTER'S 102341 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 422842313902, "submittedDateTime": 1652623862, "completedDateTime": 1652659200, "amount": 11.65, "memo": "MCALISTER'S 102341 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -6767,11 +6550,11 @@
       </c>
       <c r="G92" s="2" cm="1">
         <f t="array" aca="1" ref="G92" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>891594573965</v>
+        <v>750266561847</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="5"/>
-        <v>1652802908</v>
+        <v>1652776517</v>
       </c>
       <c r="I92">
         <f t="shared" si="6"/>
@@ -6787,7 +6570,7 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1652802908, "completedDateTime": 1652832000, "amount": -50.17, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1652776517, "completedDateTime": 1652832000, "amount": -50.17, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -6805,11 +6588,11 @@
       </c>
       <c r="G93" s="2" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>771640338305</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="5"/>
-        <v>1652805560</v>
+        <v>1652780747</v>
       </c>
       <c r="I93">
         <f t="shared" si="6"/>
@@ -6825,7 +6608,7 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1652805560, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1652780747, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -6843,11 +6626,11 @@
       </c>
       <c r="G94" s="2" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>702136833361</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="5"/>
-        <v>1652761150</v>
+        <v>1652808735</v>
       </c>
       <c r="I94">
         <f t="shared" si="6"/>
@@ -6863,7 +6646,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1652761150, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WAL-MART #3749 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1652808735, "completedDateTime": 1652832000, "amount": 24.55, "memo": "WAL-MART #3749 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -6881,11 +6664,11 @@
       </c>
       <c r="G95" s="2" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>384302539441</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="5"/>
-        <v>1652891334</v>
+        <v>1652838245</v>
       </c>
       <c r="I95">
         <f t="shared" si="6"/>
@@ -6901,7 +6684,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1652891334, "completedDateTime": 1652918400, "amount": -4072.46, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 384302539441, "submittedDateTime": 1652838245, "completedDateTime": 1652918400, "amount": -4072.46, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -6919,11 +6702,11 @@
       </c>
       <c r="G96" s="2" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>942613689574</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="5"/>
-        <v>1652923433</v>
+        <v>1652957044</v>
       </c>
       <c r="I96">
         <f t="shared" si="6"/>
@@ -6939,7 +6722,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1652923433, "completedDateTime": 1653004800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1652957044, "completedDateTime": 1653004800, "amount": 11.83, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -6957,11 +6740,11 @@
       </c>
       <c r="G97" s="2" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>685109477442</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="5"/>
-        <v>1653666921</v>
+        <v>1653610101</v>
       </c>
       <c r="I97">
         <f t="shared" si="6"/>
@@ -6977,7 +6760,7 @@
       </c>
       <c r="L97" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1653666921, "completedDateTime": 1653696000, "amount": 5.66, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1653610101, "completedDateTime": 1653696000, "amount": 5.66, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -6995,11 +6778,11 @@
       </c>
       <c r="G98" s="2" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="5"/>
-        <v>1653621660</v>
+        <v>1653690363</v>
       </c>
       <c r="I98">
         <f t="shared" si="6"/>
@@ -7015,7 +6798,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1653621660, "completedDateTime": 1653696000, "amount": 226.36, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1653690363, "completedDateTime": 1653696000, "amount": 226.36, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -7033,11 +6816,11 @@
       </c>
       <c r="G99" s="2" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>415908241586</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="5"/>
-        <v>1653616207</v>
+        <v>1653674579</v>
       </c>
       <c r="I99">
         <f t="shared" si="6"/>
@@ -7053,7 +6836,7 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1653616207, "completedDateTime": 1653696000, "amount": 130.52, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1653674579, "completedDateTime": 1653696000, "amount": 130.52, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -7071,11 +6854,11 @@
       </c>
       <c r="G100" s="2" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="5"/>
-        <v>1653923692</v>
+        <v>1653912749</v>
       </c>
       <c r="I100">
         <f t="shared" si="6"/>
@@ -7091,7 +6874,7 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1653923692, "completedDateTime": 1653955200, "amount": 18.18, "memo": "Etsy.com - BlueThreadG Brooklyn NY" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1653912749, "completedDateTime": 1653955200, "amount": 18.18, "memo": "Etsy.com - BlueThreadG Brooklyn NY" },</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -7109,11 +6892,11 @@
       </c>
       <c r="G101" s="2" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>750266561847</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="5"/>
-        <v>1653953322</v>
+        <v>1653875878</v>
       </c>
       <c r="I101">
         <f t="shared" si="6"/>
@@ -7129,7 +6912,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1653953322, "completedDateTime": 1653955200, "amount": 172.9, "memo": "Tesla_US_Service 8777983752 CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1653875878, "completedDateTime": 1653955200, "amount": 172.9, "memo": "Tesla_US_Service 8777983752 CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -7147,11 +6930,11 @@
       </c>
       <c r="G102" s="2" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>771640338305</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="5"/>
-        <v>1654019159</v>
+        <v>1653963958</v>
       </c>
       <c r="I102">
         <f t="shared" si="6"/>
@@ -7167,7 +6950,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1654019159, "completedDateTime": 1654041600, "amount": 22.59, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1653963958, "completedDateTime": 1654041600, "amount": 22.59, "memo": "HOMEDEPOT.COM 800-430-3376 GA" },</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -7185,11 +6968,11 @@
       </c>
       <c r="G103" s="2" cm="1">
         <f t="array" aca="1" ref="G103" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>228410255662</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="5"/>
-        <v>1654466639</v>
+        <v>1654470452</v>
       </c>
       <c r="I103">
         <f t="shared" si="6"/>
@@ -7205,7 +6988,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1654466639, "completedDateTime": 1654473600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1654470452, "completedDateTime": 1654473600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -7223,11 +7006,11 @@
       </c>
       <c r="G104" s="2" cm="1">
         <f t="array" aca="1" ref="G104" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>745844482971</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="5"/>
-        <v>1654456465</v>
+        <v>1654457448</v>
       </c>
       <c r="I104">
         <f t="shared" si="6"/>
@@ -7243,7 +7026,7 @@
       </c>
       <c r="L104" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1654456465, "completedDateTime": 1654473600, "amount": 19.8, "memo": "LONGHORN STEAK 0125046 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 745844482971, "submittedDateTime": 1654457448, "completedDateTime": 1654473600, "amount": 19.8, "memo": "LONGHORN STEAK 0125046 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -7261,11 +7044,11 @@
       </c>
       <c r="G105" s="2" cm="1">
         <f t="array" aca="1" ref="G105" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>771519988061</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="5"/>
-        <v>1654719240</v>
+        <v>1654677119</v>
       </c>
       <c r="I105">
         <f t="shared" si="6"/>
@@ -7281,7 +7064,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1654719240, "completedDateTime": 1654732800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1654677119, "completedDateTime": 1654732800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -7299,11 +7082,11 @@
       </c>
       <c r="G106" s="2" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>477378744576</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="5"/>
-        <v>1654883148</v>
+        <v>1654869313</v>
       </c>
       <c r="I106">
         <f t="shared" si="6"/>
@@ -7319,7 +7102,7 @@
       </c>
       <c r="L106" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1654883148, "completedDateTime": 1654905600, "amount": -1085.99, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1654869313, "completedDateTime": 1654905600, "amount": -1085.99, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -7337,11 +7120,11 @@
       </c>
       <c r="G107" s="2" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="5"/>
-        <v>1655141161</v>
+        <v>1655103654</v>
       </c>
       <c r="I107">
         <f t="shared" si="6"/>
@@ -7357,7 +7140,7 @@
       </c>
       <c r="L107" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1655141161, "completedDateTime": 1655164800, "amount": 61.94, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1655103654, "completedDateTime": 1655164800, "amount": 61.94, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -7375,11 +7158,11 @@
       </c>
       <c r="G108" s="2" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>863866434270</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="5"/>
-        <v>1655312240</v>
+        <v>1655253372</v>
       </c>
       <c r="I108">
         <f t="shared" si="6"/>
@@ -7395,7 +7178,7 @@
       </c>
       <c r="L108" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1655312240, "completedDateTime": 1655337600, "amount": 70.75, "memo": "SP IFIXIT SAN LUIS OBIS CA" },</v>
+        <v>{ "accountNumber": 863866434270, "submittedDateTime": 1655253372, "completedDateTime": 1655337600, "amount": 70.75, "memo": "SP IFIXIT SAN LUIS OBIS CA" },</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -7413,11 +7196,11 @@
       </c>
       <c r="G109" s="2" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>373565734409</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="5"/>
-        <v>1655353015</v>
+        <v>1655365521</v>
       </c>
       <c r="I109">
         <f t="shared" si="6"/>
@@ -7433,7 +7216,7 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1655353015, "completedDateTime": 1655424000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 373565734409, "submittedDateTime": 1655365521, "completedDateTime": 1655424000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -7451,11 +7234,11 @@
       </c>
       <c r="G110" s="2" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>317595283947</v>
+        <v>373565734409</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="5"/>
-        <v>1655613644</v>
+        <v>1655631542</v>
       </c>
       <c r="I110">
         <f t="shared" si="6"/>
@@ -7471,7 +7254,7 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1655613644, "completedDateTime": 1655683200, "amount": 72, "memo": "SQ *CATHOLIC KOLPING S Cincinnati OH" },</v>
+        <v>{ "accountNumber": 373565734409, "submittedDateTime": 1655631542, "completedDateTime": 1655683200, "amount": 72, "memo": "SQ *CATHOLIC KOLPING S Cincinnati OH" },</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -7489,11 +7272,11 @@
       </c>
       <c r="G111" s="2" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="5"/>
-        <v>1656231959</v>
+        <v>1656253425</v>
       </c>
       <c r="I111">
         <f t="shared" si="6"/>
@@ -7509,7 +7292,7 @@
       </c>
       <c r="L111" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1656231959, "completedDateTime": 1656288000, "amount": -35, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1656253425, "completedDateTime": 1656288000, "amount": -35, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -7527,11 +7310,11 @@
       </c>
       <c r="G112" s="2" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>685109477442</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="5"/>
-        <v>1656316478</v>
+        <v>1656370482</v>
       </c>
       <c r="I112">
         <f t="shared" si="6"/>
@@ -7547,7 +7330,7 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1656316478, "completedDateTime": 1656374400, "amount": 0.66, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1656370482, "completedDateTime": 1656374400, "amount": 0.66, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -7565,11 +7348,11 @@
       </c>
       <c r="G113" s="2" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>771519988061</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="5"/>
-        <v>1656316865</v>
+        <v>1656350702</v>
       </c>
       <c r="I113">
         <f t="shared" si="6"/>
@@ -7585,7 +7368,7 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1656316865, "completedDateTime": 1656374400, "amount": 18, "memo": "THE DAVID PAKMAN SHOW BOSTON MA" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1656350702, "completedDateTime": 1656374400, "amount": 18, "memo": "THE DAVID PAKMAN SHOW BOSTON MA" },</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -7603,11 +7386,11 @@
       </c>
       <c r="G114" s="2" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>750266561847</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="5"/>
-        <v>1656333037</v>
+        <v>1656310402</v>
       </c>
       <c r="I114">
         <f t="shared" si="6"/>
@@ -7623,7 +7406,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1656333037, "completedDateTime": 1656374400, "amount": 64.68, "memo": "WALMART.COM AA 8009666546 AR" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1656310402, "completedDateTime": 1656374400, "amount": 64.68, "memo": "WALMART.COM AA 8009666546 AR" },</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -7641,11 +7424,11 @@
       </c>
       <c r="G115" s="2" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>743989385362</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="5"/>
-        <v>1656657708</v>
+        <v>1656657064</v>
       </c>
       <c r="I115">
         <f t="shared" si="6"/>
@@ -7661,7 +7444,7 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1656657708, "completedDateTime": 1656720000, "amount": -318.94, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 743989385362, "submittedDateTime": 1656657064, "completedDateTime": 1656720000, "amount": -318.94, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -7679,11 +7462,11 @@
       </c>
       <c r="G116" s="2" cm="1">
         <f t="array" aca="1" ref="G116" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>477378744576</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="5"/>
-        <v>1656677354</v>
+        <v>1656711977</v>
       </c>
       <c r="I116">
         <f t="shared" si="6"/>
@@ -7699,7 +7482,7 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1656677354, "completedDateTime": 1656720000, "amount": 40.74, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1656711977, "completedDateTime": 1656720000, "amount": 40.74, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -7717,11 +7500,11 @@
       </c>
       <c r="G117" s="2" cm="1">
         <f t="array" aca="1" ref="G117" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>228410255662</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="5"/>
-        <v>1656955131</v>
+        <v>1656965531</v>
       </c>
       <c r="I117">
         <f t="shared" si="6"/>
@@ -7737,7 +7520,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1656955131, "completedDateTime": 1656979200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1656965531, "completedDateTime": 1656979200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -7755,11 +7538,11 @@
       </c>
       <c r="G118" s="2" cm="1">
         <f t="array" aca="1" ref="G118" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>973891075646</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="5"/>
-        <v>1657004789</v>
+        <v>1657005948</v>
       </c>
       <c r="I118">
         <f t="shared" si="6"/>
@@ -7775,7 +7558,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1657004789, "completedDateTime": 1657065600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1657005948, "completedDateTime": 1657065600, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -7793,11 +7576,11 @@
       </c>
       <c r="G119" s="2" cm="1">
         <f t="array" aca="1" ref="G119" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>750266561847</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="5"/>
-        <v>1657271900</v>
+        <v>1657276487</v>
       </c>
       <c r="I119">
         <f t="shared" si="6"/>
@@ -7813,7 +7596,7 @@
       </c>
       <c r="L119" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1657271900, "completedDateTime": 1657324800, "amount": -119.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1657276487, "completedDateTime": 1657324800, "amount": -119.58, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -7831,11 +7614,11 @@
       </c>
       <c r="G120" s="2" cm="1">
         <f t="array" aca="1" ref="G120" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>477378744576</v>
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="5"/>
-        <v>1657240446</v>
+        <v>1657286422</v>
       </c>
       <c r="I120">
         <f t="shared" si="6"/>
@@ -7851,7 +7634,7 @@
       </c>
       <c r="L120" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1657240446, "completedDateTime": 1657324800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1657286422, "completedDateTime": 1657324800, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -7869,11 +7652,11 @@
       </c>
       <c r="G121" s="2" cm="1">
         <f t="array" aca="1" ref="G121" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>602971727973</v>
+        <v>306781755424</v>
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="5"/>
-        <v>1657305163</v>
+        <v>1657288732</v>
       </c>
       <c r="I121">
         <f t="shared" si="6"/>
@@ -7889,7 +7672,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 602971727973, "submittedDateTime": 1657305163, "completedDateTime": 1657324800, "amount": 0, "memo": "MEMBERSHIP FEE JUL 22-JUN 23" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1657288732, "completedDateTime": 1657324800, "amount": 0, "memo": "MEMBERSHIP FEE JUL 22-JUN 23" },</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -7907,11 +7690,11 @@
       </c>
       <c r="G122" s="2" cm="1">
         <f t="array" aca="1" ref="G122" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>201893813588</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="5"/>
-        <v>1658138711</v>
+        <v>1658165625</v>
       </c>
       <c r="I122">
         <f t="shared" si="6"/>
@@ -7927,7 +7710,7 @@
       </c>
       <c r="L122" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1658138711, "completedDateTime": 1658188800, "amount": 11.51, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1658165625, "completedDateTime": 1658188800, "amount": 11.51, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -7945,11 +7728,11 @@
       </c>
       <c r="G123" s="2" cm="1">
         <f t="array" aca="1" ref="G123" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>602971727973</v>
+        <v>201893813588</v>
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="5"/>
-        <v>1658142887</v>
+        <v>1658179935</v>
       </c>
       <c r="I123">
         <f t="shared" si="6"/>
@@ -7965,7 +7748,7 @@
       </c>
       <c r="L123" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 602971727973, "submittedDateTime": 1658142887, "completedDateTime": 1658188800, "amount": 23.35, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1658179935, "completedDateTime": 1658188800, "amount": 23.35, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -7983,11 +7766,11 @@
       </c>
       <c r="G124" s="2" cm="1">
         <f t="array" aca="1" ref="G124" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>415908241586</v>
+        <v>455810450311</v>
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="5"/>
-        <v>1658225034</v>
+        <v>1658249501</v>
       </c>
       <c r="I124">
         <f t="shared" si="6"/>
@@ -8003,7 +7786,7 @@
       </c>
       <c r="L124" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1658225034, "completedDateTime": 1658275200, "amount": 12.18, "memo": "CHILI'S FLORENCE #1706 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1658249501, "completedDateTime": 1658275200, "amount": 12.18, "memo": "CHILI'S FLORENCE #1706 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -8021,11 +7804,11 @@
       </c>
       <c r="G125" s="2" cm="1">
         <f t="array" aca="1" ref="G125" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>398225850477</v>
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="5"/>
-        <v>1658232476</v>
+        <v>1658262651</v>
       </c>
       <c r="I125">
         <f t="shared" si="6"/>
@@ -8041,7 +7824,7 @@
       </c>
       <c r="L125" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1658232476, "completedDateTime": 1658275200, "amount": 15.68, "memo": "CHEDDAR'S 0202134 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1658262651, "completedDateTime": 1658275200, "amount": 15.68, "memo": "CHEDDAR'S 0202134 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -8059,11 +7842,11 @@
       </c>
       <c r="G126" s="2" cm="1">
         <f t="array" aca="1" ref="G126" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>627541466323</v>
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="5"/>
-        <v>1658437116</v>
+        <v>1658370327</v>
       </c>
       <c r="I126">
         <f t="shared" si="6"/>
@@ -8079,7 +7862,7 @@
       </c>
       <c r="L126" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1658437116, "completedDateTime": 1658448000, "amount": 14.71, "memo": "SKYLINE CHILI 1003 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1658370327, "completedDateTime": 1658448000, "amount": 14.71, "memo": "SKYLINE CHILI 1003 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -8097,11 +7880,11 @@
       </c>
       <c r="G127" s="2" cm="1">
         <f t="array" aca="1" ref="G127" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>306781755424</v>
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="5"/>
-        <v>1658472447</v>
+        <v>1658475079</v>
       </c>
       <c r="I127">
         <f t="shared" si="6"/>
@@ -8117,7 +7900,7 @@
       </c>
       <c r="L127" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1658472447, "completedDateTime": 1658534400, "amount": 31.25, "memo": "KROGER #418 NORWOOD OH" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1658475079, "completedDateTime": 1658534400, "amount": 31.25, "memo": "KROGER #418 NORWOOD OH" },</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -8135,11 +7918,11 @@
       </c>
       <c r="G128" s="2" cm="1">
         <f t="array" aca="1" ref="G128" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="5"/>
-        <v>1658590218</v>
+        <v>1658589123</v>
       </c>
       <c r="I128">
         <f t="shared" si="6"/>
@@ -8155,7 +7938,7 @@
       </c>
       <c r="L128" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1658590218, "completedDateTime": 1658620800, "amount": 71.15, "memo": "WALMART.COM AA 8009666546 AR" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1658589123, "completedDateTime": 1658620800, "amount": 71.15, "memo": "WALMART.COM AA 8009666546 AR" },</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -8173,11 +7956,11 @@
       </c>
       <c r="G129" s="2" cm="1">
         <f t="array" aca="1" ref="G129" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="5"/>
-        <v>1658809647</v>
+        <v>1658861079</v>
       </c>
       <c r="I129">
         <f t="shared" si="6"/>
@@ -8193,7 +7976,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1658809647, "completedDateTime": 1658880000, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1658861079, "completedDateTime": 1658880000, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -8211,11 +7994,11 @@
       </c>
       <c r="G130" s="2" cm="1">
         <f t="array" aca="1" ref="G130" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>228410255662</v>
       </c>
       <c r="H130">
         <f t="shared" ca="1" si="5"/>
-        <v>1658817418</v>
+        <v>1658858403</v>
       </c>
       <c r="I130">
         <f t="shared" si="6"/>
@@ -8231,7 +8014,7 @@
       </c>
       <c r="L130" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1658817418, "completedDateTime": 1658880000, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1658858403, "completedDateTime": 1658880000, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -8249,11 +8032,11 @@
       </c>
       <c r="G131" s="2" cm="1">
         <f t="array" aca="1" ref="G131" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>611022312294</v>
+        <v>685109477442</v>
       </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" ca="1" si="10">_xlfn.FLOOR.MATH((B131-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1658795888</v>
+        <v>1658839612</v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I194" si="11">_xlfn.FLOOR.MATH((B131-DATE(1970,1,1)+1)*86400)</f>
@@ -8269,7 +8052,7 @@
       </c>
       <c r="L131" t="str">
         <f t="shared" ref="L131:L194" ca="1" si="14">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G131&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H131&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I131&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J131&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K131&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1658795888, "completedDateTime": 1658880000, "amount": 12.39, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1658839612, "completedDateTime": 1658880000, "amount": 12.39, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -8287,11 +8070,11 @@
       </c>
       <c r="G132" s="2" cm="1">
         <f t="array" aca="1" ref="G132" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>317595283947</v>
+        <v>201893813588</v>
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="10"/>
-        <v>1658922710</v>
+        <v>1658927342</v>
       </c>
       <c r="I132">
         <f t="shared" si="11"/>
@@ -8307,7 +8090,7 @@
       </c>
       <c r="L132" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1658922710, "completedDateTime": 1658966400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1658927342, "completedDateTime": 1658966400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -8325,11 +8108,11 @@
       </c>
       <c r="G133" s="2" cm="1">
         <f t="array" aca="1" ref="G133" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>869780232178</v>
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="10"/>
-        <v>1658972079</v>
+        <v>1659047925</v>
       </c>
       <c r="I133">
         <f t="shared" si="11"/>
@@ -8345,7 +8128,7 @@
       </c>
       <c r="L133" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1658972079, "completedDateTime": 1659052800, "amount": -241.83, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1659047925, "completedDateTime": 1659052800, "amount": -241.83, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -8363,11 +8146,11 @@
       </c>
       <c r="G134" s="2" cm="1">
         <f t="array" aca="1" ref="G134" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>154068856018</v>
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="10"/>
-        <v>1658993307</v>
+        <v>1658990031</v>
       </c>
       <c r="I134">
         <f t="shared" si="11"/>
@@ -8383,7 +8166,7 @@
       </c>
       <c r="L134" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1658993307, "completedDateTime": 1659052800, "amount": 49.04, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1658990031, "completedDateTime": 1659052800, "amount": 49.04, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -8401,11 +8184,11 @@
       </c>
       <c r="G135" s="2" cm="1">
         <f t="array" aca="1" ref="G135" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>306781755424</v>
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="10"/>
-        <v>1659176867</v>
+        <v>1659194635</v>
       </c>
       <c r="I135">
         <f t="shared" si="11"/>
@@ -8421,7 +8204,7 @@
       </c>
       <c r="L135" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1659176867, "completedDateTime": 1659225600, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1659194635, "completedDateTime": 1659225600, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -8439,11 +8222,11 @@
       </c>
       <c r="G136" s="2" cm="1">
         <f t="array" aca="1" ref="G136" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>750266561847</v>
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="10"/>
-        <v>1659178439</v>
+        <v>1659179473</v>
       </c>
       <c r="I136">
         <f t="shared" si="11"/>
@@ -8459,7 +8242,7 @@
       </c>
       <c r="L136" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1659178439, "completedDateTime": 1659225600, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1659179473, "completedDateTime": 1659225600, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -8477,11 +8260,11 @@
       </c>
       <c r="G137" s="2" cm="1">
         <f t="array" aca="1" ref="G137" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>639474417673</v>
+        <v>743989385362</v>
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="10"/>
-        <v>1659277599</v>
+        <v>1659277259</v>
       </c>
       <c r="I137">
         <f t="shared" si="11"/>
@@ -8497,7 +8280,7 @@
       </c>
       <c r="L137" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1659277599, "completedDateTime": 1659312000, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 743989385362, "submittedDateTime": 1659277259, "completedDateTime": 1659312000, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -8515,11 +8298,11 @@
       </c>
       <c r="G138" s="2" cm="1">
         <f t="array" aca="1" ref="G138" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>384302539441</v>
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="10"/>
-        <v>1659383274</v>
+        <v>1659352780</v>
       </c>
       <c r="I138">
         <f t="shared" si="11"/>
@@ -8535,7 +8318,7 @@
       </c>
       <c r="L138" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1659383274, "completedDateTime": 1659398400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 384302539441, "submittedDateTime": 1659352780, "completedDateTime": 1659398400, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -8553,11 +8336,11 @@
       </c>
       <c r="G139" s="2" cm="1">
         <f t="array" aca="1" ref="G139" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>750266561847</v>
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="10"/>
-        <v>1659465830</v>
+        <v>1659480516</v>
       </c>
       <c r="I139">
         <f t="shared" si="11"/>
@@ -8573,7 +8356,7 @@
       </c>
       <c r="L139" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1659465830, "completedDateTime": 1659484800, "amount": 1.9, "memo": "WENDY'S - TURFWAY FLORENCE KY" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1659480516, "completedDateTime": 1659484800, "amount": 1.9, "memo": "WENDY'S - TURFWAY FLORENCE KY" },</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -8591,11 +8374,11 @@
       </c>
       <c r="G140" s="2" cm="1">
         <f t="array" aca="1" ref="G140" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>477378744576</v>
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="10"/>
-        <v>1659523253</v>
+        <v>1659519130</v>
       </c>
       <c r="I140">
         <f t="shared" si="11"/>
@@ -8611,7 +8394,7 @@
       </c>
       <c r="L140" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1659523253, "completedDateTime": 1659571200, "amount": -111.91, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1659519130, "completedDateTime": 1659571200, "amount": -111.91, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -8629,11 +8412,11 @@
       </c>
       <c r="G141" s="2" cm="1">
         <f t="array" aca="1" ref="G141" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>455810450311</v>
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="10"/>
-        <v>1659694943</v>
+        <v>1659661398</v>
       </c>
       <c r="I141">
         <f t="shared" si="11"/>
@@ -8649,7 +8432,7 @@
       </c>
       <c r="L141" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1659694943, "completedDateTime": 1659744000, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1659661398, "completedDateTime": 1659744000, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -8667,11 +8450,11 @@
       </c>
       <c r="G142" s="2" cm="1">
         <f t="array" aca="1" ref="G142" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>775440347177</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="10"/>
-        <v>1659890750</v>
+        <v>1659865073</v>
       </c>
       <c r="I142">
         <f t="shared" si="11"/>
@@ -8687,7 +8470,7 @@
       </c>
       <c r="L142" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 775440347177, "submittedDateTime": 1659890750, "completedDateTime": 1659916800, "amount": 13.23, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1659865073, "completedDateTime": 1659916800, "amount": 13.23, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -8705,11 +8488,11 @@
       </c>
       <c r="G143" s="2" cm="1">
         <f t="array" aca="1" ref="G143" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>477378744576</v>
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="10"/>
-        <v>1659919166</v>
+        <v>1659955588</v>
       </c>
       <c r="I143">
         <f t="shared" si="11"/>
@@ -8725,7 +8508,7 @@
       </c>
       <c r="L143" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1659919166, "completedDateTime": 1660003200, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1659955588, "completedDateTime": 1660003200, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -8743,11 +8526,11 @@
       </c>
       <c r="G144" s="2" cm="1">
         <f t="array" aca="1" ref="G144" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>968412565877</v>
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="10"/>
-        <v>1659987942</v>
+        <v>1659937864</v>
       </c>
       <c r="I144">
         <f t="shared" si="11"/>
@@ -8763,7 +8546,7 @@
       </c>
       <c r="L144" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1659987942, "completedDateTime": 1660003200, "amount": 15.18, "memo": "PANERA BREAD #204911 P FLORENCE KY null XXXXXXXXXXXX4754" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1659937864, "completedDateTime": 1660003200, "amount": 15.18, "memo": "PANERA BREAD #204911 P FLORENCE KY null XXXXXXXXXXXX4754" },</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -8781,11 +8564,11 @@
       </c>
       <c r="G145" s="2" cm="1">
         <f t="array" aca="1" ref="G145" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>863866434270</v>
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="10"/>
-        <v>1660086408</v>
+        <v>1660051703</v>
       </c>
       <c r="I145">
         <f t="shared" si="11"/>
@@ -8801,7 +8584,7 @@
       </c>
       <c r="L145" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1660086408, "completedDateTime": 1660089600, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
+        <v>{ "accountNumber": 863866434270, "submittedDateTime": 1660051703, "completedDateTime": 1660089600, "amount": 14.18, "memo": "PANERA BREAD #204911 P FLORENCE KY" },</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -8819,11 +8602,11 @@
       </c>
       <c r="G146" s="2" cm="1">
         <f t="array" aca="1" ref="G146" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="10"/>
-        <v>1660136183</v>
+        <v>1660131122</v>
       </c>
       <c r="I146">
         <f t="shared" si="11"/>
@@ -8839,7 +8622,7 @@
       </c>
       <c r="L146" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1660136183, "completedDateTime": 1660176000, "amount": 12.65, "memo": "SQ *BAM BAM'S Florence KY" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1660131122, "completedDateTime": 1660176000, "amount": 12.65, "memo": "SQ *BAM BAM'S Florence KY" },</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -8857,11 +8640,11 @@
       </c>
       <c r="G147" s="2" cm="1">
         <f t="array" aca="1" ref="G147" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>973891075646</v>
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="10"/>
-        <v>1660410616</v>
+        <v>1660382713</v>
       </c>
       <c r="I147">
         <f t="shared" si="11"/>
@@ -8877,7 +8660,7 @@
       </c>
       <c r="L147" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1660410616, "completedDateTime": 1660435200, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1660382713, "completedDateTime": 1660435200, "amount": 60.61, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -8895,11 +8678,11 @@
       </c>
       <c r="G148" s="2" cm="1">
         <f t="array" aca="1" ref="G148" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="10"/>
-        <v>1660433961</v>
+        <v>1660416586</v>
       </c>
       <c r="I148">
         <f t="shared" si="11"/>
@@ -8915,7 +8698,7 @@
       </c>
       <c r="L148" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1660433961, "completedDateTime": 1660435200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1660416586, "completedDateTime": 1660435200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -8933,11 +8716,11 @@
       </c>
       <c r="G149" s="2" cm="1">
         <f t="array" aca="1" ref="G149" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>771519988061</v>
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="10"/>
-        <v>1660426582</v>
+        <v>1660418457</v>
       </c>
       <c r="I149">
         <f t="shared" si="11"/>
@@ -8953,7 +8736,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1660426582, "completedDateTime": 1660435200, "amount": 1.05, "memo": "WENDY'S COVINGTON KY" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1660418457, "completedDateTime": 1660435200, "amount": 1.05, "memo": "WENDY'S COVINGTON KY" },</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -8971,11 +8754,11 @@
       </c>
       <c r="G150" s="2" cm="1">
         <f t="array" aca="1" ref="G150" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="10"/>
-        <v>1660490264</v>
+        <v>1660466876</v>
       </c>
       <c r="I150">
         <f t="shared" si="11"/>
@@ -8991,7 +8774,7 @@
       </c>
       <c r="L150" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1660490264, "completedDateTime": 1660521600, "amount": 148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1660466876, "completedDateTime": 1660521600, "amount": 148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -9009,11 +8792,11 @@
       </c>
       <c r="G151" s="2" cm="1">
         <f t="array" aca="1" ref="G151" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>810077691050</v>
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="10"/>
-        <v>1660499556</v>
+        <v>1660462801</v>
       </c>
       <c r="I151">
         <f t="shared" si="11"/>
@@ -9029,7 +8812,7 @@
       </c>
       <c r="L151" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1660499556, "completedDateTime": 1660521600, "amount": 241.17, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1660462801, "completedDateTime": 1660521600, "amount": 241.17, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -9047,11 +8830,11 @@
       </c>
       <c r="G152" s="2" cm="1">
         <f t="array" aca="1" ref="G152" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="10"/>
-        <v>1660591114</v>
+        <v>1660605572</v>
       </c>
       <c r="I152">
         <f t="shared" si="11"/>
@@ -9067,7 +8850,7 @@
       </c>
       <c r="L152" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1660591114, "completedDateTime": 1660608000, "amount": 7.41, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1660605572, "completedDateTime": 1660608000, "amount": 7.41, "memo": "TST* Rotolo Bowling Southgate KY" },</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -9085,11 +8868,11 @@
       </c>
       <c r="G153" s="2" cm="1">
         <f t="array" aca="1" ref="G153" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>422842313902</v>
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="10"/>
-        <v>1660532248</v>
+        <v>1660534887</v>
       </c>
       <c r="I153">
         <f t="shared" si="11"/>
@@ -9105,7 +8888,7 @@
       </c>
       <c r="L153" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1660532248, "completedDateTime": 1660608000, "amount": 11.71, "memo": "CHIPOTLE 2579 COVINGTON KY" },</v>
+        <v>{ "accountNumber": 422842313902, "submittedDateTime": 1660534887, "completedDateTime": 1660608000, "amount": 11.71, "memo": "CHIPOTLE 2579 COVINGTON KY" },</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -9123,11 +8906,11 @@
       </c>
       <c r="G154" s="2" cm="1">
         <f t="array" aca="1" ref="G154" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>942613689574</v>
+        <v>968412565877</v>
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="10"/>
-        <v>1660533523</v>
+        <v>1660591095</v>
       </c>
       <c r="I154">
         <f t="shared" si="11"/>
@@ -9143,7 +8926,7 @@
       </c>
       <c r="L154" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1660533523, "completedDateTime": 1660608000, "amount": 21.93, "memo": "TST* Rotolo Bowling Southgate KY null XXXXXXXXXXXX4754" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1660591095, "completedDateTime": 1660608000, "amount": 21.93, "memo": "TST* Rotolo Bowling Southgate KY null XXXXXXXXXXXX4754" },</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -9161,11 +8944,11 @@
       </c>
       <c r="G155" s="2" cm="1">
         <f t="array" aca="1" ref="G155" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>6688393282945650</v>
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="10"/>
-        <v>1660754718</v>
+        <v>1660753903</v>
       </c>
       <c r="I155">
         <f t="shared" si="11"/>
@@ -9181,7 +8964,7 @@
       </c>
       <c r="L155" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1660754718, "completedDateTime": 1660780800, "amount": -148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 6688393282945650, "submittedDateTime": 1660753903, "completedDateTime": 1660780800, "amount": -148.33, "memo": "BEST BUY 00001610 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -9199,11 +8982,11 @@
       </c>
       <c r="G156" s="2" cm="1">
         <f t="array" aca="1" ref="G156" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>611022312294</v>
+        <v>477378744576</v>
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="10"/>
-        <v>1660847739</v>
+        <v>1660830830</v>
       </c>
       <c r="I156">
         <f t="shared" si="11"/>
@@ -9219,7 +9002,7 @@
       </c>
       <c r="L156" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1660847739, "completedDateTime": 1660867200, "amount": 7.99, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1660830830, "completedDateTime": 1660867200, "amount": 7.99, "memo": "SKYLINE CHILI 1033 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -9237,11 +9020,11 @@
       </c>
       <c r="G157" s="2" cm="1">
         <f t="array" aca="1" ref="G157" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>450379505851</v>
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="10"/>
-        <v>1661034656</v>
+        <v>1661012050</v>
       </c>
       <c r="I157">
         <f t="shared" si="11"/>
@@ -9257,7 +9040,7 @@
       </c>
       <c r="L157" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1661034656, "completedDateTime": 1661040000, "amount": 13, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1661012050, "completedDateTime": 1661040000, "amount": 13, "memo": "THE ECHO RESTAURANT CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -9275,11 +9058,11 @@
       </c>
       <c r="G158" s="2" cm="1">
         <f t="array" aca="1" ref="G158" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>154068856018</v>
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="10"/>
-        <v>1661231497</v>
+        <v>1661286252</v>
       </c>
       <c r="I158">
         <f t="shared" si="11"/>
@@ -9295,7 +9078,7 @@
       </c>
       <c r="L158" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1661231497, "completedDateTime": 1661299200, "amount": 23.98, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1661286252, "completedDateTime": 1661299200, "amount": 23.98, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -9313,11 +9096,11 @@
       </c>
       <c r="G159" s="2" cm="1">
         <f t="array" aca="1" ref="G159" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>341796193771</v>
+        <v>968412565877</v>
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="10"/>
-        <v>1661233244</v>
+        <v>1661251758</v>
       </c>
       <c r="I159">
         <f t="shared" si="11"/>
@@ -9333,7 +9116,7 @@
       </c>
       <c r="L159" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1661233244, "completedDateTime": 1661299200, "amount": 123.98, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1661251758, "completedDateTime": 1661299200, "amount": 123.98, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -9351,11 +9134,11 @@
       </c>
       <c r="G160" s="2" cm="1">
         <f t="array" aca="1" ref="G160" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>942613689574</v>
+        <v>745844482971</v>
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="10"/>
-        <v>1661246439</v>
+        <v>1661289119</v>
       </c>
       <c r="I160">
         <f t="shared" si="11"/>
@@ -9371,7 +9154,7 @@
       </c>
       <c r="L160" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1661246439, "completedDateTime": 1661299200, "amount": 153.6, "memo": "AMERICAN00178489934733 NORWALK CT" },</v>
+        <v>{ "accountNumber": 745844482971, "submittedDateTime": 1661289119, "completedDateTime": 1661299200, "amount": 153.6, "memo": "AMERICAN00178489934733 NORWALK CT" },</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -9389,11 +9172,11 @@
       </c>
       <c r="G161" s="2" cm="1">
         <f t="array" aca="1" ref="G161" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>6688393282945650</v>
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="10"/>
-        <v>1661326442</v>
+        <v>1661333070</v>
       </c>
       <c r="I161">
         <f t="shared" si="11"/>
@@ -9409,7 +9192,7 @@
       </c>
       <c r="L161" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1661326442, "completedDateTime": 1661385600, "amount": 18.1, "memo": "PRICELN*TVL PROTECT 800-774-2354 CT" },</v>
+        <v>{ "accountNumber": 6688393282945650, "submittedDateTime": 1661333070, "completedDateTime": 1661385600, "amount": 18.1, "memo": "PRICELN*TVL PROTECT 800-774-2354 CT" },</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -9427,11 +9210,11 @@
       </c>
       <c r="G162" s="2" cm="1">
         <f t="array" aca="1" ref="G162" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>702136833361</v>
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="10"/>
-        <v>1661466871</v>
+        <v>1661385963</v>
       </c>
       <c r="I162">
         <f t="shared" si="11"/>
@@ -9447,7 +9230,7 @@
       </c>
       <c r="L162" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1661466871, "completedDateTime": 1661472000, "amount": 15.99, "memo": "TVP INC/LA ROSA S NORW CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1661385963, "completedDateTime": 1661472000, "amount": 15.99, "memo": "TVP INC/LA ROSA S NORW CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -9465,11 +9248,11 @@
       </c>
       <c r="G163" s="2" cm="1">
         <f t="array" aca="1" ref="G163" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>567751798401</v>
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="10"/>
-        <v>1661485070</v>
+        <v>1661527545</v>
       </c>
       <c r="I163">
         <f t="shared" si="11"/>
@@ -9485,7 +9268,7 @@
       </c>
       <c r="L163" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1661485070, "completedDateTime": 1661558400, "amount": -319.66, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1661527545, "completedDateTime": 1661558400, "amount": -319.66, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -9503,11 +9286,11 @@
       </c>
       <c r="G164" s="2" cm="1">
         <f t="array" aca="1" ref="G164" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>317595283947</v>
+        <v>750266561847</v>
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="10"/>
-        <v>1661548859</v>
+        <v>1661542118</v>
       </c>
       <c r="I164">
         <f t="shared" si="11"/>
@@ -9523,7 +9306,7 @@
       </c>
       <c r="L164" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1661548859, "completedDateTime": 1661558400, "amount": -530.85, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1661542118, "completedDateTime": 1661558400, "amount": -530.85, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -9541,11 +9324,11 @@
       </c>
       <c r="G165" s="2" cm="1">
         <f t="array" aca="1" ref="G165" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>771519988061</v>
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="10"/>
-        <v>1661499798</v>
+        <v>1661554780</v>
       </c>
       <c r="I165">
         <f t="shared" si="11"/>
@@ -9561,7 +9344,7 @@
       </c>
       <c r="L165" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661499798, "completedDateTime": 1661558400, "amount": 29.56, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1661554780, "completedDateTime": 1661558400, "amount": 29.56, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -9579,11 +9362,11 @@
       </c>
       <c r="G166" s="2" cm="1">
         <f t="array" aca="1" ref="G166" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>450379505851</v>
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="10"/>
-        <v>1661571062</v>
+        <v>1661610243</v>
       </c>
       <c r="I166">
         <f t="shared" si="11"/>
@@ -9599,7 +9382,7 @@
       </c>
       <c r="L166" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661571062, "completedDateTime": 1661644800, "amount": 12.93, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1661610243, "completedDateTime": 1661644800, "amount": 12.93, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -9617,11 +9400,11 @@
       </c>
       <c r="G167" s="2" cm="1">
         <f t="array" aca="1" ref="G167" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>384302539441</v>
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="10"/>
-        <v>1661628189</v>
+        <v>1661590256</v>
       </c>
       <c r="I167">
         <f t="shared" si="11"/>
@@ -9637,7 +9420,7 @@
       </c>
       <c r="L167" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1661628189, "completedDateTime": 1661644800, "amount": 53.58, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 384302539441, "submittedDateTime": 1661590256, "completedDateTime": 1661644800, "amount": 53.58, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -9655,11 +9438,11 @@
       </c>
       <c r="G168" s="2" cm="1">
         <f t="array" aca="1" ref="G168" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="10"/>
-        <v>1661584292</v>
+        <v>1661639211</v>
       </c>
       <c r="I168">
         <f t="shared" si="11"/>
@@ -9675,7 +9458,7 @@
       </c>
       <c r="L168" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1661584292, "completedDateTime": 1661644800, "amount": 9.69, "memo": "China Max CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1661639211, "completedDateTime": 1661644800, "amount": 9.69, "memo": "China Max CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -9693,11 +9476,11 @@
       </c>
       <c r="G169" s="2" cm="1">
         <f t="array" aca="1" ref="G169" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>611022312294</v>
+        <v>590761751601</v>
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="10"/>
-        <v>1661678917</v>
+        <v>1661663485</v>
       </c>
       <c r="I169">
         <f t="shared" si="11"/>
@@ -9713,7 +9496,7 @@
       </c>
       <c r="L169" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1661678917, "completedDateTime": 1661731200, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
+        <v>{ "accountNumber": 590761751601, "submittedDateTime": 1661663485, "completedDateTime": 1661731200, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -9731,11 +9514,11 @@
       </c>
       <c r="G170" s="2" cm="1">
         <f t="array" aca="1" ref="G170" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>398225850477</v>
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="10"/>
-        <v>1661725961</v>
+        <v>1661665247</v>
       </c>
       <c r="I170">
         <f t="shared" si="11"/>
@@ -9751,7 +9534,7 @@
       </c>
       <c r="L170" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1661725961, "completedDateTime": 1661731200, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1661665247, "completedDateTime": 1661731200, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -9769,11 +9552,11 @@
       </c>
       <c r="G171" s="2" cm="1">
         <f t="array" aca="1" ref="G171" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>415908241586</v>
+        <v>477378744576</v>
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="10"/>
-        <v>1661809360</v>
+        <v>1661799529</v>
       </c>
       <c r="I171">
         <f t="shared" si="11"/>
@@ -9789,7 +9572,7 @@
       </c>
       <c r="L171" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 415908241586, "submittedDateTime": 1661809360, "completedDateTime": 1661817600, "amount": 62, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1661799529, "completedDateTime": 1661817600, "amount": 62, "memo": "FRONTIERQCM3YJ DENVER CO" },</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -9807,11 +9590,11 @@
       </c>
       <c r="G172" s="2" cm="1">
         <f t="array" aca="1" ref="G172" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>639474417673</v>
+        <v>771519988061</v>
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="10"/>
-        <v>1661839268</v>
+        <v>1661850633</v>
       </c>
       <c r="I172">
         <f t="shared" si="11"/>
@@ -9827,7 +9610,7 @@
       </c>
       <c r="L172" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1661839268, "completedDateTime": 1661904000, "amount": 7.64, "memo": "KFC/PHX I675001 DENVER CO" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1661850633, "completedDateTime": 1661904000, "amount": 7.64, "memo": "KFC/PHX I675001 DENVER CO" },</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -9845,11 +9628,11 @@
       </c>
       <c r="G173" s="2" cm="1">
         <f t="array" aca="1" ref="G173" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>973891075646</v>
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="10"/>
-        <v>1661824544</v>
+        <v>1661863330</v>
       </c>
       <c r="I173">
         <f t="shared" si="11"/>
@@ -9865,7 +9648,7 @@
       </c>
       <c r="L173" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661824544, "completedDateTime": 1661904000, "amount": 29.95, "memo": "MOERLEIN BREW PUB A CV CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1661863330, "completedDateTime": 1661904000, "amount": 29.95, "memo": "MOERLEIN BREW PUB A CV CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -9883,11 +9666,11 @@
       </c>
       <c r="G174" s="2" cm="1">
         <f t="array" aca="1" ref="G174" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>306781755424</v>
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="10"/>
-        <v>1661887085</v>
+        <v>1661885398</v>
       </c>
       <c r="I174">
         <f t="shared" si="11"/>
@@ -9903,7 +9686,7 @@
       </c>
       <c r="L174" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1661887085, "completedDateTime": 1661904000, "amount": 36.59, "memo": "HENDERSONTAXI LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1661885398, "completedDateTime": 1661904000, "amount": 36.59, "memo": "HENDERSONTAXI LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -9921,11 +9704,11 @@
       </c>
       <c r="G175" s="2" cm="1">
         <f t="array" aca="1" ref="G175" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>869780232178</v>
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="10"/>
-        <v>1661971410</v>
+        <v>1661982228</v>
       </c>
       <c r="I175">
         <f t="shared" si="11"/>
@@ -9941,7 +9724,7 @@
       </c>
       <c r="L175" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1661971410, "completedDateTime": 1661990400, "amount": 486.99, "memo": "LONDON SUITS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1661982228, "completedDateTime": 1661990400, "amount": 486.99, "memo": "LONDON SUITS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -9959,11 +9742,11 @@
       </c>
       <c r="G176" s="2" cm="1">
         <f t="array" aca="1" ref="G176" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>611022312294</v>
+        <v>702136833361</v>
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="10"/>
-        <v>1661982999</v>
+        <v>1661950949</v>
       </c>
       <c r="I176">
         <f t="shared" si="11"/>
@@ -9979,7 +9762,7 @@
       </c>
       <c r="L176" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 611022312294, "submittedDateTime": 1661982999, "completedDateTime": 1661990400, "amount": 17.08, "memo": "FLAMINGO CASINO SVCS B LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1661950949, "completedDateTime": 1661990400, "amount": 17.08, "memo": "FLAMINGO CASINO SVCS B LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -9997,11 +9780,11 @@
       </c>
       <c r="G177" s="2" cm="1">
         <f t="array" aca="1" ref="G177" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>639474417673</v>
+        <v>627541466323</v>
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="10"/>
-        <v>1662162419</v>
+        <v>1662146344</v>
       </c>
       <c r="I177">
         <f t="shared" si="11"/>
@@ -10017,7 +9800,7 @@
       </c>
       <c r="L177" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1662162419, "completedDateTime": 1662163200, "amount": 24.5, "memo": "AREA15 LAS VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1662146344, "completedDateTime": 1662163200, "amount": 24.5, "memo": "AREA15 LAS VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -10035,11 +9818,11 @@
       </c>
       <c r="G178" s="2" cm="1">
         <f t="array" aca="1" ref="G178" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>973891075646</v>
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="10"/>
-        <v>1662162448</v>
+        <v>1662115547</v>
       </c>
       <c r="I178">
         <f t="shared" si="11"/>
@@ -10055,7 +9838,7 @@
       </c>
       <c r="L178" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1662162448, "completedDateTime": 1662163200, "amount": 67, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1662115547, "completedDateTime": 1662163200, "amount": 67, "memo": "FRONTIERCD5NUT DENVER CO" },</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -10073,11 +9856,11 @@
       </c>
       <c r="G179" s="2" cm="1">
         <f t="array" aca="1" ref="G179" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>702136833361</v>
       </c>
       <c r="H179">
         <f t="shared" ca="1" si="10"/>
-        <v>1662147291</v>
+        <v>1662086779</v>
       </c>
       <c r="I179">
         <f t="shared" si="11"/>
@@ -10093,7 +9876,7 @@
       </c>
       <c r="L179" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1662147291, "completedDateTime": 1662163200, "amount": 79, "memo": "HOTELTONIGHTFLAMINGO 8333380302 CA null XXXXXXXXXXXX3562" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1662086779, "completedDateTime": 1662163200, "amount": 79, "memo": "HOTELTONIGHTFLAMINGO 8333380302 CA null XXXXXXXXXXXX3562" },</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -10111,11 +9894,11 @@
       </c>
       <c r="G180" s="2" cm="1">
         <f t="array" aca="1" ref="G180" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>602971727973</v>
+        <v>567751798401</v>
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="10"/>
-        <v>1662150102</v>
+        <v>1662115085</v>
       </c>
       <c r="I180">
         <f t="shared" si="11"/>
@@ -10131,7 +9914,7 @@
       </c>
       <c r="L180" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 602971727973, "submittedDateTime": 1662150102, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1662115085, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -10149,11 +9932,11 @@
       </c>
       <c r="G181" s="2" cm="1">
         <f t="array" aca="1" ref="G181" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>942613689574</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="10"/>
-        <v>1662148021</v>
+        <v>1662137070</v>
       </c>
       <c r="I181">
         <f t="shared" si="11"/>
@@ -10169,7 +9952,7 @@
       </c>
       <c r="L181" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 942613689574, "submittedDateTime": 1662148021, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1662137070, "completedDateTime": 1662163200, "amount": 9, "memo": "EMPORIUM LAS VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -10187,11 +9970,11 @@
       </c>
       <c r="G182" s="2" cm="1">
         <f t="array" aca="1" ref="G182" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>968412565877</v>
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="10"/>
-        <v>1662123044</v>
+        <v>1662112826</v>
       </c>
       <c r="I182">
         <f t="shared" si="11"/>
@@ -10207,7 +9990,7 @@
       </c>
       <c r="L182" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1662123044, "completedDateTime": 1662163200, "amount": 144, "memo": "CAT S MEOW OF VEGAS LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1662112826, "completedDateTime": 1662163200, "amount": 144, "memo": "CAT S MEOW OF VEGAS LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -10225,11 +10008,11 @@
       </c>
       <c r="G183" s="2" cm="1">
         <f t="array" aca="1" ref="G183" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="10"/>
-        <v>1662238417</v>
+        <v>1662215976</v>
       </c>
       <c r="I183">
         <f t="shared" si="11"/>
@@ -10245,7 +10028,7 @@
       </c>
       <c r="L183" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1662238417, "completedDateTime": 1662249600, "amount": 45.3, "memo": "FLAMINGO HOTEL LAS VEG LAS VEGAS NV" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1662215976, "completedDateTime": 1662249600, "amount": 45.3, "memo": "FLAMINGO HOTEL LAS VEG LAS VEGAS NV" },</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -10263,11 +10046,11 @@
       </c>
       <c r="G184" s="2" cm="1">
         <f t="array" aca="1" ref="G184" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>810077691050</v>
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="10"/>
-        <v>1662259465</v>
+        <v>1662315027</v>
       </c>
       <c r="I184">
         <f t="shared" si="11"/>
@@ -10283,7 +10066,7 @@
       </c>
       <c r="L184" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1662259465, "completedDateTime": 1662336000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1662315027, "completedDateTime": 1662336000, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -10301,11 +10084,11 @@
       </c>
       <c r="G185" s="2" cm="1">
         <f t="array" aca="1" ref="G185" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>750266561847</v>
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="10"/>
-        <v>1662357098</v>
+        <v>1662392352</v>
       </c>
       <c r="I185">
         <f t="shared" si="11"/>
@@ -10321,7 +10104,7 @@
       </c>
       <c r="L185" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1662357098, "completedDateTime": 1662422400, "amount": 52.41, "memo": "ZAP*ZAPPOS.COM 800-927-7671 NV" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1662392352, "completedDateTime": 1662422400, "amount": 52.41, "memo": "ZAP*ZAPPOS.COM 800-927-7671 NV" },</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -10339,11 +10122,11 @@
       </c>
       <c r="G186" s="2" cm="1">
         <f t="array" aca="1" ref="G186" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="10"/>
-        <v>1662379815</v>
+        <v>1662338112</v>
       </c>
       <c r="I186">
         <f t="shared" si="11"/>
@@ -10359,7 +10142,7 @@
       </c>
       <c r="L186" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1662379815, "completedDateTime": 1662422400, "amount": 40.25, "memo": "AA WOK DAYTON KY" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1662338112, "completedDateTime": 1662422400, "amount": 40.25, "memo": "AA WOK DAYTON KY" },</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -10377,11 +10160,11 @@
       </c>
       <c r="G187" s="2" cm="1">
         <f t="array" aca="1" ref="G187" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>697163844059</v>
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="10"/>
-        <v>1662371201</v>
+        <v>1662378635</v>
       </c>
       <c r="I187">
         <f t="shared" si="11"/>
@@ -10397,7 +10180,7 @@
       </c>
       <c r="L187" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1662371201, "completedDateTime": 1662422400, "amount": 66, "memo": "CINCINNATI AIRPORT 986 ERLANGER KY" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1662378635, "completedDateTime": 1662422400, "amount": 66, "memo": "CINCINNATI AIRPORT 986 ERLANGER KY" },</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -10415,11 +10198,11 @@
       </c>
       <c r="G188" s="2" cm="1">
         <f t="array" aca="1" ref="G188" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>685109477442</v>
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="10"/>
-        <v>1662385078</v>
+        <v>1662407636</v>
       </c>
       <c r="I188">
         <f t="shared" si="11"/>
@@ -10435,7 +10218,7 @@
       </c>
       <c r="L188" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1662385078, "completedDateTime": 1662422400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1662407636, "completedDateTime": 1662422400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -10453,11 +10236,11 @@
       </c>
       <c r="G189" s="2" cm="1">
         <f t="array" aca="1" ref="G189" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="10"/>
-        <v>1662463171</v>
+        <v>1662429437</v>
       </c>
       <c r="I189">
         <f t="shared" si="11"/>
@@ -10473,7 +10256,7 @@
       </c>
       <c r="L189" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1662463171, "completedDateTime": 1662508800, "amount": 50.94, "memo": "HELLOFRESH 646-8463663 NY" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1662429437, "completedDateTime": 1662508800, "amount": 50.94, "memo": "HELLOFRESH 646-8463663 NY" },</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -10491,11 +10274,11 @@
       </c>
       <c r="G190" s="2" cm="1">
         <f t="array" aca="1" ref="G190" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>968412565877</v>
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="10"/>
-        <v>1662452390</v>
+        <v>1662498107</v>
       </c>
       <c r="I190">
         <f t="shared" si="11"/>
@@ -10511,7 +10294,7 @@
       </c>
       <c r="L190" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1662452390, "completedDateTime": 1662508800, "amount": 224.26, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1662498107, "completedDateTime": 1662508800, "amount": 224.26, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -10529,11 +10312,11 @@
       </c>
       <c r="G191" s="2" cm="1">
         <f t="array" aca="1" ref="G191" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>810077691050</v>
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="10"/>
-        <v>1662519300</v>
+        <v>1662510272</v>
       </c>
       <c r="I191">
         <f t="shared" si="11"/>
@@ -10549,7 +10332,7 @@
       </c>
       <c r="L191" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1662519300, "completedDateTime": 1662595200, "amount": 5.39, "memo": "CKO*PATREON* MEMBERSHI 833-9728766 CA" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1662510272, "completedDateTime": 1662595200, "amount": 5.39, "memo": "CKO*PATREON* MEMBERSHI 833-9728766 CA" },</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -10567,11 +10350,11 @@
       </c>
       <c r="G192" s="2" cm="1">
         <f t="array" aca="1" ref="G192" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>400535778457</v>
+        <v>702136833361</v>
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="10"/>
-        <v>1662673301</v>
+        <v>1662675121</v>
       </c>
       <c r="I192">
         <f t="shared" si="11"/>
@@ -10587,7 +10370,7 @@
       </c>
       <c r="L192" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 400535778457, "submittedDateTime": 1662673301, "completedDateTime": 1662681600, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1662675121, "completedDateTime": 1662681600, "amount": 30, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -10605,11 +10388,11 @@
       </c>
       <c r="G193" s="2" cm="1">
         <f t="array" aca="1" ref="G193" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>198252465357</v>
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="10"/>
-        <v>1662706366</v>
+        <v>1662721949</v>
       </c>
       <c r="I193">
         <f t="shared" si="11"/>
@@ -10625,7 +10408,7 @@
       </c>
       <c r="L193" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1662706366, "completedDateTime": 1662768000, "amount": 16.59, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
+        <v>{ "accountNumber": 198252465357, "submittedDateTime": 1662721949, "completedDateTime": 1662768000, "amount": 16.59, "memo": "LA ROSA'S HYDE PARK 513-984-3870 OH" },</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -10643,11 +10426,11 @@
       </c>
       <c r="G194" s="2" cm="1">
         <f t="array" aca="1" ref="G194" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>750266561847</v>
       </c>
       <c r="H194">
         <f t="shared" ca="1" si="10"/>
-        <v>1662749434</v>
+        <v>1662706395</v>
       </c>
       <c r="I194">
         <f t="shared" si="11"/>
@@ -10663,7 +10446,7 @@
       </c>
       <c r="L194" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1662749434, "completedDateTime": 1662768000, "amount": 97.93, "memo": "RED BANK FINE WINE CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1662706395, "completedDateTime": 1662768000, "amount": 97.93, "memo": "RED BANK FINE WINE CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -10681,11 +10464,11 @@
       </c>
       <c r="G195" s="2" cm="1">
         <f t="array" aca="1" ref="G195" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>398225850477</v>
       </c>
       <c r="H195">
         <f t="shared" ref="H195:H258" ca="1" si="15">_xlfn.FLOOR.MATH((B195-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1662713714</v>
+        <v>1662700857</v>
       </c>
       <c r="I195">
         <f t="shared" ref="I195:I258" si="16">_xlfn.FLOOR.MATH((B195-DATE(1970,1,1)+1)*86400)</f>
@@ -10701,7 +10484,7 @@
       </c>
       <c r="L195" t="str">
         <f t="shared" ref="L195:L258" ca="1" si="19">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G195&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H195&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I195&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J195&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K195&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1662713714, "completedDateTime": 1662768000, "amount": 18.26, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1662700857, "completedDateTime": 1662768000, "amount": 18.26, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -10719,11 +10502,11 @@
       </c>
       <c r="G196" s="2" cm="1">
         <f t="array" aca="1" ref="G196" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>398225850477</v>
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="15"/>
-        <v>1663096472</v>
+        <v>1663103337</v>
       </c>
       <c r="I196">
         <f t="shared" si="16"/>
@@ -10739,7 +10522,7 @@
       </c>
       <c r="L196" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1663096472, "completedDateTime": 1663113600, "amount": 45.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1663103337, "completedDateTime": 1663113600, "amount": 45.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -10757,11 +10540,11 @@
       </c>
       <c r="G197" s="2" cm="1">
         <f t="array" aca="1" ref="G197" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>869780232178</v>
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="15"/>
-        <v>1663078628</v>
+        <v>1663105192</v>
       </c>
       <c r="I197">
         <f t="shared" si="16"/>
@@ -10777,7 +10560,7 @@
       </c>
       <c r="L197" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1663078628, "completedDateTime": 1663113600, "amount": 77.21, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1663105192, "completedDateTime": 1663113600, "amount": 77.21, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -10795,11 +10578,11 @@
       </c>
       <c r="G198" s="2" cm="1">
         <f t="array" aca="1" ref="G198" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>869780232178</v>
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="15"/>
-        <v>1663140456</v>
+        <v>1663167070</v>
       </c>
       <c r="I198">
         <f t="shared" si="16"/>
@@ -10815,7 +10598,7 @@
       </c>
       <c r="L198" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1663140456, "completedDateTime": 1663200000, "amount": 73.89, "memo": "TURO INC.* TRIP SEP 19 SAN FRANCISCO CA null XXXXXXXXXXXX2971" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1663167070, "completedDateTime": 1663200000, "amount": 73.89, "memo": "TURO INC.* TRIP SEP 19 SAN FRANCISCO CA null XXXXXXXXXXXX2971" },</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -10833,11 +10616,11 @@
       </c>
       <c r="G199" s="2" cm="1">
         <f t="array" aca="1" ref="G199" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>422842313902</v>
       </c>
       <c r="H199">
         <f t="shared" ca="1" si="15"/>
-        <v>1663238943</v>
+        <v>1663268810</v>
       </c>
       <c r="I199">
         <f t="shared" si="16"/>
@@ -10853,7 +10636,7 @@
       </c>
       <c r="L199" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1663238943, "completedDateTime": 1663286400, "amount": 6.97, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 422842313902, "submittedDateTime": 1663268810, "completedDateTime": 1663286400, "amount": 6.97, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -10871,11 +10654,11 @@
       </c>
       <c r="G200" s="2" cm="1">
         <f t="array" aca="1" ref="G200" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>422842313902</v>
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="15"/>
-        <v>1663289217</v>
+        <v>1663314233</v>
       </c>
       <c r="I200">
         <f t="shared" si="16"/>
@@ -10891,7 +10674,7 @@
       </c>
       <c r="L200" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1663289217, "completedDateTime": 1663372800, "amount": 19.26, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
+        <v>{ "accountNumber": 422842313902, "submittedDateTime": 1663314233, "completedDateTime": 1663372800, "amount": 19.26, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -10909,11 +10692,11 @@
       </c>
       <c r="G201" s="2" cm="1">
         <f t="array" aca="1" ref="G201" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="15"/>
-        <v>1663294137</v>
+        <v>1663343304</v>
       </c>
       <c r="I201">
         <f t="shared" si="16"/>
@@ -10929,7 +10712,7 @@
       </c>
       <c r="L201" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1663294137, "completedDateTime": 1663372800, "amount": 20.52, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1663343304, "completedDateTime": 1663372800, "amount": 20.52, "memo": "SALT FORK STATE PARK G CAMBRIDGE OH" },</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -10947,11 +10730,11 @@
       </c>
       <c r="G202" s="2" cm="1">
         <f t="array" aca="1" ref="G202" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>341796193771</v>
+        <v>254438198713</v>
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="15"/>
-        <v>1663582365</v>
+        <v>1663582192</v>
       </c>
       <c r="I202">
         <f t="shared" si="16"/>
@@ -10967,7 +10750,7 @@
       </c>
       <c r="L202" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1663582365, "completedDateTime": 1663632000, "amount": 39.19, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 254438198713, "submittedDateTime": 1663582192, "completedDateTime": 1663632000, "amount": 39.19, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -10985,11 +10768,11 @@
       </c>
       <c r="G203" s="2" cm="1">
         <f t="array" aca="1" ref="G203" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>455810450311</v>
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="15"/>
-        <v>1663604417</v>
+        <v>1663594262</v>
       </c>
       <c r="I203">
         <f t="shared" si="16"/>
@@ -11005,7 +10788,7 @@
       </c>
       <c r="L203" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1663604417, "completedDateTime": 1663632000, "amount": 49.1, "memo": "SPEEDWAY 09576 CINCINN CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1663594262, "completedDateTime": 1663632000, "amount": 49.1, "memo": "SPEEDWAY 09576 CINCINN CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -11023,11 +10806,11 @@
       </c>
       <c r="G204" s="2" cm="1">
         <f t="array" aca="1" ref="G204" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>201893813588</v>
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="15"/>
-        <v>1663561460</v>
+        <v>1663602876</v>
       </c>
       <c r="I204">
         <f t="shared" si="16"/>
@@ -11043,7 +10826,7 @@
       </c>
       <c r="L204" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1663561460, "completedDateTime": 1663632000, "amount": 44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 201893813588, "submittedDateTime": 1663602876, "completedDateTime": 1663632000, "amount": 44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -11061,11 +10844,11 @@
       </c>
       <c r="G205" s="2" cm="1">
         <f t="array" aca="1" ref="G205" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>869780232178</v>
       </c>
       <c r="H205">
         <f t="shared" ca="1" si="15"/>
-        <v>1663656274</v>
+        <v>1663681974</v>
       </c>
       <c r="I205">
         <f t="shared" si="16"/>
@@ -11081,7 +10864,7 @@
       </c>
       <c r="L205" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1663656274, "completedDateTime": 1663718400, "amount": 98.61, "memo": "HELLOFRESH 646-8463663 NY" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1663681974, "completedDateTime": 1663718400, "amount": 98.61, "memo": "HELLOFRESH 646-8463663 NY" },</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -11099,11 +10882,11 @@
       </c>
       <c r="G206" s="2" cm="1">
         <f t="array" aca="1" ref="G206" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>917325385866</v>
+        <v>771640338305</v>
       </c>
       <c r="H206">
         <f t="shared" ca="1" si="15"/>
-        <v>1663748019</v>
+        <v>1663792860</v>
       </c>
       <c r="I206">
         <f t="shared" si="16"/>
@@ -11119,7 +10902,7 @@
       </c>
       <c r="L206" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 917325385866, "submittedDateTime": 1663748019, "completedDateTime": 1663804800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1663792860, "completedDateTime": 1663804800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -11137,11 +10920,11 @@
       </c>
       <c r="G207" s="2" cm="1">
         <f t="array" aca="1" ref="G207" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>398225850477</v>
       </c>
       <c r="H207">
         <f t="shared" ca="1" si="15"/>
-        <v>1663768345</v>
+        <v>1663736534</v>
       </c>
       <c r="I207">
         <f t="shared" si="16"/>
@@ -11157,7 +10940,7 @@
       </c>
       <c r="L207" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1663768345, "completedDateTime": 1663804800, "amount": -44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1663736534, "completedDateTime": 1663804800, "amount": -44.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -11175,11 +10958,11 @@
       </c>
       <c r="G208" s="2" cm="1">
         <f t="array" aca="1" ref="G208" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>6688393282945650</v>
       </c>
       <c r="H208">
         <f t="shared" ca="1" si="15"/>
-        <v>1663721938</v>
+        <v>1663798127</v>
       </c>
       <c r="I208">
         <f t="shared" si="16"/>
@@ -11195,7 +10978,7 @@
       </c>
       <c r="L208" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1663721938, "completedDateTime": 1663804800, "amount": 58.3, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 6688393282945650, "submittedDateTime": 1663798127, "completedDateTime": 1663804800, "amount": 58.3, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -11213,11 +10996,11 @@
       </c>
       <c r="G209" s="2" cm="1">
         <f t="array" aca="1" ref="G209" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>702136833361</v>
       </c>
       <c r="H209">
         <f t="shared" ca="1" si="15"/>
-        <v>1663770529</v>
+        <v>1663752238</v>
       </c>
       <c r="I209">
         <f t="shared" si="16"/>
@@ -11233,7 +11016,7 @@
       </c>
       <c r="L209" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1663770529, "completedDateTime": 1663804800, "amount": 36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1663752238, "completedDateTime": 1663804800, "amount": 36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -11251,11 +11034,11 @@
       </c>
       <c r="G210" s="2" cm="1">
         <f t="array" aca="1" ref="G210" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>905851799456</v>
+        <v>771519988061</v>
       </c>
       <c r="H210">
         <f t="shared" ca="1" si="15"/>
-        <v>1664049131</v>
+        <v>1663988368</v>
       </c>
       <c r="I210">
         <f t="shared" si="16"/>
@@ -11271,7 +11054,7 @@
       </c>
       <c r="L210" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1664049131, "completedDateTime": 1664064000, "amount": -36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1663988368, "completedDateTime": 1664064000, "amount": -36.9, "memo": "dbrand Order 6472053971 CAN" },</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -11289,11 +11072,11 @@
       </c>
       <c r="G211" s="2" cm="1">
         <f t="array" aca="1" ref="G211" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>627541466323</v>
       </c>
       <c r="H211">
         <f t="shared" ca="1" si="15"/>
-        <v>1664129868</v>
+        <v>1664091574</v>
       </c>
       <c r="I211">
         <f t="shared" si="16"/>
@@ -11309,7 +11092,7 @@
       </c>
       <c r="L211" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1664129868, "completedDateTime": 1664150400, "amount": -21.31, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1664091574, "completedDateTime": 1664150400, "amount": -21.31, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -11327,11 +11110,11 @@
       </c>
       <c r="G212" s="2" cm="1">
         <f t="array" aca="1" ref="G212" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>341796193771</v>
+        <v>745844482971</v>
       </c>
       <c r="H212">
         <f t="shared" ca="1" si="15"/>
-        <v>1664144764</v>
+        <v>1664113053</v>
       </c>
       <c r="I212">
         <f t="shared" si="16"/>
@@ -11347,7 +11130,7 @@
       </c>
       <c r="L212" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1664144764, "completedDateTime": 1664150400, "amount": -21.53, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 745844482971, "submittedDateTime": 1664113053, "completedDateTime": 1664150400, "amount": -21.53, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -11365,11 +11148,11 @@
       </c>
       <c r="G213" s="2" cm="1">
         <f t="array" aca="1" ref="G213" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>341796193771</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H213">
         <f t="shared" ca="1" si="15"/>
-        <v>1664070860</v>
+        <v>1664108956</v>
       </c>
       <c r="I213">
         <f t="shared" si="16"/>
@@ -11385,7 +11168,7 @@
       </c>
       <c r="L213" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1664070860, "completedDateTime": 1664150400, "amount": 58.81, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1664108956, "completedDateTime": 1664150400, "amount": 58.81, "memo": "WM SUPERCENTER #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -11403,11 +11186,11 @@
       </c>
       <c r="G214" s="2" cm="1">
         <f t="array" aca="1" ref="G214" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>771640338305</v>
       </c>
       <c r="H214">
         <f t="shared" ca="1" si="15"/>
-        <v>1664299000</v>
+        <v>1664303141</v>
       </c>
       <c r="I214">
         <f t="shared" si="16"/>
@@ -11423,7 +11206,7 @@
       </c>
       <c r="L214" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1664299000, "completedDateTime": 1664323200, "amount": 98.61, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1664303141, "completedDateTime": 1664323200, "amount": 98.61, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -11441,11 +11224,11 @@
       </c>
       <c r="G215" s="2" cm="1">
         <f t="array" aca="1" ref="G215" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>455810450311</v>
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="15"/>
-        <v>1664343251</v>
+        <v>1664338927</v>
       </c>
       <c r="I215">
         <f t="shared" si="16"/>
@@ -11461,7 +11244,7 @@
       </c>
       <c r="L215" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1664343251, "completedDateTime": 1664409600, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1664338927, "completedDateTime": 1664409600, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -11479,11 +11262,11 @@
       </c>
       <c r="G216" s="2" cm="1">
         <f t="array" aca="1" ref="G216" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>810077691050</v>
       </c>
       <c r="H216">
         <f t="shared" ca="1" si="15"/>
-        <v>1664358650</v>
+        <v>1664400023</v>
       </c>
       <c r="I216">
         <f t="shared" si="16"/>
@@ -11499,7 +11282,7 @@
       </c>
       <c r="L216" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1664358650, "completedDateTime": 1664409600, "amount": 119, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1664400023, "completedDateTime": 1664409600, "amount": 119, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -11517,11 +11300,11 @@
       </c>
       <c r="G217" s="2" cm="1">
         <f t="array" aca="1" ref="G217" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>317595283947</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H217">
         <f t="shared" ca="1" si="15"/>
-        <v>1664457073</v>
+        <v>1664467481</v>
       </c>
       <c r="I217">
         <f t="shared" si="16"/>
@@ -11537,7 +11320,7 @@
       </c>
       <c r="L217" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1664457073, "completedDateTime": 1664496000, "amount": 7.34, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1664467481, "completedDateTime": 1664496000, "amount": 7.34, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -11555,11 +11338,11 @@
       </c>
       <c r="G218" s="2" cm="1">
         <f t="array" aca="1" ref="G218" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>341796193771</v>
+        <v>968412565877</v>
       </c>
       <c r="H218">
         <f t="shared" ca="1" si="15"/>
-        <v>1664603875</v>
+        <v>1664615329</v>
       </c>
       <c r="I218">
         <f t="shared" si="16"/>
@@ -11575,7 +11358,7 @@
       </c>
       <c r="L218" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 341796193771, "submittedDateTime": 1664603875, "completedDateTime": 1664668800, "amount": 223.66, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1664615329, "completedDateTime": 1664668800, "amount": 223.66, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -11593,11 +11376,11 @@
       </c>
       <c r="G219" s="2" cm="1">
         <f t="array" aca="1" ref="G219" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>373565734409</v>
       </c>
       <c r="H219">
         <f t="shared" ca="1" si="15"/>
-        <v>1664914496</v>
+        <v>1664927567</v>
       </c>
       <c r="I219">
         <f t="shared" si="16"/>
@@ -11613,7 +11396,7 @@
       </c>
       <c r="L219" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1664914496, "completedDateTime": 1664928000, "amount": -83, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
+        <v>{ "accountNumber": 373565734409, "submittedDateTime": 1664927567, "completedDateTime": 1664928000, "amount": -83, "memo": "CIRCUITBOARDREPAIR.NET MADISON WI" },</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -11631,11 +11414,11 @@
       </c>
       <c r="G220" s="2" cm="1">
         <f t="array" aca="1" ref="G220" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>702136833361</v>
       </c>
       <c r="H220">
         <f t="shared" ca="1" si="15"/>
-        <v>1664900332</v>
+        <v>1664887994</v>
       </c>
       <c r="I220">
         <f t="shared" si="16"/>
@@ -11651,7 +11434,7 @@
       </c>
       <c r="L220" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1664900332, "completedDateTime": 1664928000, "amount": 98.61, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1664887994, "completedDateTime": 1664928000, "amount": 98.61, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -11669,11 +11452,11 @@
       </c>
       <c r="G221" s="2" cm="1">
         <f t="array" aca="1" ref="G221" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>771640338305</v>
       </c>
       <c r="H221">
         <f t="shared" ca="1" si="15"/>
-        <v>1664945385</v>
+        <v>1664986351</v>
       </c>
       <c r="I221">
         <f t="shared" si="16"/>
@@ -11689,7 +11472,7 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1664945385, "completedDateTime": 1665014400, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771640338305, "submittedDateTime": 1664986351, "completedDateTime": 1665014400, "amount": -129.67, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -11707,11 +11490,11 @@
       </c>
       <c r="G222" s="2" cm="1">
         <f t="array" aca="1" ref="G222" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>567751798401</v>
       </c>
       <c r="H222">
         <f t="shared" ca="1" si="15"/>
-        <v>1665001995</v>
+        <v>1664971690</v>
       </c>
       <c r="I222">
         <f t="shared" si="16"/>
@@ -11727,7 +11510,7 @@
       </c>
       <c r="L222" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1665001995, "completedDateTime": 1665014400, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1664971690, "completedDateTime": 1665014400, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -11745,11 +11528,11 @@
       </c>
       <c r="G223" s="2" cm="1">
         <f t="array" aca="1" ref="G223" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>973891075646</v>
       </c>
       <c r="H223">
         <f t="shared" ca="1" si="15"/>
-        <v>1664971316</v>
+        <v>1664952862</v>
       </c>
       <c r="I223">
         <f t="shared" si="16"/>
@@ -11765,7 +11548,7 @@
       </c>
       <c r="L223" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1664971316, "completedDateTime": 1665014400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 973891075646, "submittedDateTime": 1664952862, "completedDateTime": 1665014400, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -11783,11 +11566,11 @@
       </c>
       <c r="G224" s="2" cm="1">
         <f t="array" aca="1" ref="G224" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>745844482971</v>
       </c>
       <c r="H224">
         <f t="shared" ca="1" si="15"/>
-        <v>1665008318</v>
+        <v>1664977129</v>
       </c>
       <c r="I224">
         <f t="shared" si="16"/>
@@ -11803,7 +11586,7 @@
       </c>
       <c r="L224" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1665008318, "completedDateTime": 1665014400, "amount": 5.27, "memo": "MARATHON PETRO140699 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 745844482971, "submittedDateTime": 1664977129, "completedDateTime": 1665014400, "amount": 5.27, "memo": "MARATHON PETRO140699 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -11821,11 +11604,11 @@
       </c>
       <c r="G225" s="2" cm="1">
         <f t="array" aca="1" ref="G225" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>968412565877</v>
       </c>
       <c r="H225">
         <f t="shared" ca="1" si="15"/>
-        <v>1664968136</v>
+        <v>1664977587</v>
       </c>
       <c r="I225">
         <f t="shared" si="16"/>
@@ -11841,7 +11624,7 @@
       </c>
       <c r="L225" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1664968136, "completedDateTime": 1665014400, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1664977587, "completedDateTime": 1665014400, "amount": 150, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -11859,11 +11642,11 @@
       </c>
       <c r="G226" s="2" cm="1">
         <f t="array" aca="1" ref="G226" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>448414866651</v>
+        <v>590761751601</v>
       </c>
       <c r="H226">
         <f t="shared" ca="1" si="15"/>
-        <v>1664954919</v>
+        <v>1664984973</v>
       </c>
       <c r="I226">
         <f t="shared" si="16"/>
@@ -11879,7 +11662,7 @@
       </c>
       <c r="L226" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 448414866651, "submittedDateTime": 1664954919, "completedDateTime": 1665014400, "amount": 307.01, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 590761751601, "submittedDateTime": 1664984973, "completedDateTime": 1665014400, "amount": 307.01, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -11897,11 +11680,11 @@
       </c>
       <c r="G227" s="2" cm="1">
         <f t="array" aca="1" ref="G227" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>422842313902</v>
       </c>
       <c r="H227">
         <f t="shared" ca="1" si="15"/>
-        <v>1664966530</v>
+        <v>1664991857</v>
       </c>
       <c r="I227">
         <f t="shared" si="16"/>
@@ -11917,7 +11700,7 @@
       </c>
       <c r="L227" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1664966530, "completedDateTime": 1665014400, "amount": 613.38, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 422842313902, "submittedDateTime": 1664991857, "completedDateTime": 1665014400, "amount": 613.38, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -11935,11 +11718,11 @@
       </c>
       <c r="G228" s="2" cm="1">
         <f t="array" aca="1" ref="G228" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>3751589599326980</v>
+        <v>198252465357</v>
       </c>
       <c r="H228">
         <f t="shared" ca="1" si="15"/>
-        <v>1665039402</v>
+        <v>1665094523</v>
       </c>
       <c r="I228">
         <f t="shared" si="16"/>
@@ -11955,7 +11738,7 @@
       </c>
       <c r="L228" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 3751589599326980, "submittedDateTime": 1665039402, "completedDateTime": 1665100800, "amount": 34.27, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 198252465357, "submittedDateTime": 1665094523, "completedDateTime": 1665100800, "amount": 34.27, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -11973,11 +11756,11 @@
       </c>
       <c r="G229" s="2" cm="1">
         <f t="array" aca="1" ref="G229" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>477378744576</v>
       </c>
       <c r="H229">
         <f t="shared" ca="1" si="15"/>
-        <v>1665234916</v>
+        <v>1665197837</v>
       </c>
       <c r="I229">
         <f t="shared" si="16"/>
@@ -11993,7 +11776,7 @@
       </c>
       <c r="L229" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1665234916, "completedDateTime": 1665273600, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1665197837, "completedDateTime": 1665273600, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -12011,11 +11794,11 @@
       </c>
       <c r="G230" s="2" cm="1">
         <f t="array" aca="1" ref="G230" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>697163844059</v>
       </c>
       <c r="H230">
         <f t="shared" ca="1" si="15"/>
-        <v>1665532679</v>
+        <v>1665448924</v>
       </c>
       <c r="I230">
         <f t="shared" si="16"/>
@@ -12031,7 +11814,7 @@
       </c>
       <c r="L230" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1665532679, "completedDateTime": 1665532800, "amount": 107.78, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1665448924, "completedDateTime": 1665532800, "amount": 107.78, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -12049,11 +11832,11 @@
       </c>
       <c r="G231" s="2" cm="1">
         <f t="array" aca="1" ref="G231" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>905851799456</v>
+        <v>627541466323</v>
       </c>
       <c r="H231">
         <f t="shared" ca="1" si="15"/>
-        <v>1665453830</v>
+        <v>1665471047</v>
       </c>
       <c r="I231">
         <f t="shared" si="16"/>
@@ -12069,7 +11852,7 @@
       </c>
       <c r="L231" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1665453830, "completedDateTime": 1665532800, "amount": 119.38, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1665471047, "completedDateTime": 1665532800, "amount": 119.38, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -12087,11 +11870,11 @@
       </c>
       <c r="G232" s="2" cm="1">
         <f t="array" aca="1" ref="G232" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>639474417673</v>
+        <v>685109477442</v>
       </c>
       <c r="H232">
         <f t="shared" ca="1" si="15"/>
-        <v>1665565781</v>
+        <v>1665558680</v>
       </c>
       <c r="I232">
         <f t="shared" si="16"/>
@@ -12107,7 +11890,7 @@
       </c>
       <c r="L232" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 639474417673, "submittedDateTime": 1665565781, "completedDateTime": 1665619200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1665558680, "completedDateTime": 1665619200, "amount": 65.91, "memo": "CIN BELL ELEC PAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -12125,11 +11908,11 @@
       </c>
       <c r="G233" s="2" cm="1">
         <f t="array" aca="1" ref="G233" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>477378744576</v>
       </c>
       <c r="H233">
         <f t="shared" ca="1" si="15"/>
-        <v>1665702668</v>
+        <v>1665701385</v>
       </c>
       <c r="I233">
         <f t="shared" si="16"/>
@@ -12145,7 +11928,7 @@
       </c>
       <c r="L233" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1665702668, "completedDateTime": 1665705600, "amount": 50.84, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1665701385, "completedDateTime": 1665705600, "amount": 50.84, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -12163,11 +11946,11 @@
       </c>
       <c r="G234" s="2" cm="1">
         <f t="array" aca="1" ref="G234" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>254438198713</v>
       </c>
       <c r="H234">
         <f t="shared" ca="1" si="15"/>
-        <v>1665775696</v>
+        <v>1665791991</v>
       </c>
       <c r="I234">
         <f t="shared" si="16"/>
@@ -12183,7 +11966,7 @@
       </c>
       <c r="L234" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1665775696, "completedDateTime": 1665792000, "amount": -2197.87, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 254438198713, "submittedDateTime": 1665791991, "completedDateTime": 1665792000, "amount": -2197.87, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -12201,11 +11984,11 @@
       </c>
       <c r="G235" s="2" cm="1">
         <f t="array" aca="1" ref="G235" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9341099753883370</v>
+        <v>750266561847</v>
       </c>
       <c r="H235">
         <f t="shared" ca="1" si="15"/>
-        <v>1666103004</v>
+        <v>1666098090</v>
       </c>
       <c r="I235">
         <f t="shared" si="16"/>
@@ -12221,7 +12004,7 @@
       </c>
       <c r="L235" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 9341099753883370, "submittedDateTime": 1666103004, "completedDateTime": 1666137600, "amount": 4.98, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 750266561847, "submittedDateTime": 1666098090, "completedDateTime": 1666137600, "amount": 4.98, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -12239,11 +12022,11 @@
       </c>
       <c r="G236" s="2" cm="1">
         <f t="array" aca="1" ref="G236" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>697163844059</v>
       </c>
       <c r="H236">
         <f t="shared" ca="1" si="15"/>
-        <v>1666116810</v>
+        <v>1666128798</v>
       </c>
       <c r="I236">
         <f t="shared" si="16"/>
@@ -12259,7 +12042,7 @@
       </c>
       <c r="L236" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1666116810, "completedDateTime": 1666137600, "amount": 100.87, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1666128798, "completedDateTime": 1666137600, "amount": 100.87, "memo": "HELLOFRESH 3472000291 NY null XXXXXXXXXXXX0862" },</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -12277,11 +12060,11 @@
       </c>
       <c r="G237" s="2" cm="1">
         <f t="array" aca="1" ref="G237" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>567751798401</v>
       </c>
       <c r="H237">
         <f t="shared" ca="1" si="15"/>
-        <v>1666179569</v>
+        <v>1666223881</v>
       </c>
       <c r="I237">
         <f t="shared" si="16"/>
@@ -12297,7 +12080,7 @@
       </c>
       <c r="L237" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1666179569, "completedDateTime": 1666224000, "amount": 10, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
+        <v>{ "accountNumber": 567751798401, "submittedDateTime": 1666223881, "completedDateTime": 1666224000, "amount": 10, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -12315,11 +12098,11 @@
       </c>
       <c r="G238" s="2" cm="1">
         <f t="array" aca="1" ref="G238" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>477378744576</v>
       </c>
       <c r="H238">
         <f t="shared" ca="1" si="15"/>
-        <v>1666370936</v>
+        <v>1666354154</v>
       </c>
       <c r="I238">
         <f t="shared" si="16"/>
@@ -12335,7 +12118,7 @@
       </c>
       <c r="L238" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1666370936, "completedDateTime": 1666396800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
+        <v>{ "accountNumber": 477378744576, "submittedDateTime": 1666354154, "completedDateTime": 1666396800, "amount": -41, "memo": "AUTOPAY 220614032635645RAUTOPAY AUTO-PMT" },</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -12353,11 +12136,11 @@
       </c>
       <c r="G239" s="2" cm="1">
         <f t="array" aca="1" ref="G239" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H239">
         <f t="shared" ca="1" si="15"/>
-        <v>1666383774</v>
+        <v>1666310598</v>
       </c>
       <c r="I239">
         <f t="shared" si="16"/>
@@ -12373,7 +12156,7 @@
       </c>
       <c r="L239" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1666383774, "completedDateTime": 1666396800, "amount": -879.24, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1666310598, "completedDateTime": 1666396800, "amount": -879.24, "memo": "THE HOME DEPOT 3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -12391,11 +12174,11 @@
       </c>
       <c r="G240" s="2" cm="1">
         <f t="array" aca="1" ref="G240" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>810077691050</v>
       </c>
       <c r="H240">
         <f t="shared" ca="1" si="15"/>
-        <v>1666322262</v>
+        <v>1666367611</v>
       </c>
       <c r="I240">
         <f t="shared" si="16"/>
@@ -12411,7 +12194,7 @@
       </c>
       <c r="L240" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1666322262, "completedDateTime": 1666396800, "amount": -70.03, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1666367611, "completedDateTime": 1666396800, "amount": -70.03, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -12429,11 +12212,11 @@
       </c>
       <c r="G241" s="2" cm="1">
         <f t="array" aca="1" ref="G241" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>743989385362</v>
       </c>
       <c r="H241">
         <f t="shared" ca="1" si="15"/>
-        <v>1666498735</v>
+        <v>1666549069</v>
       </c>
       <c r="I241">
         <f t="shared" si="16"/>
@@ -12449,7 +12232,7 @@
       </c>
       <c r="L241" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1666498735, "completedDateTime": 1666569600, "amount": 17.52, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA" },</v>
+        <v>{ "accountNumber": 743989385362, "submittedDateTime": 1666549069, "completedDateTime": 1666569600, "amount": 17.52, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA" },</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -12467,11 +12250,11 @@
       </c>
       <c r="G242" s="2" cm="1">
         <f t="array" aca="1" ref="G242" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>627541466323</v>
       </c>
       <c r="H242">
         <f t="shared" ca="1" si="15"/>
-        <v>1666695271</v>
+        <v>1666667923</v>
       </c>
       <c r="I242">
         <f t="shared" si="16"/>
@@ -12487,7 +12270,7 @@
       </c>
       <c r="L242" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1666695271, "completedDateTime": 1666742400, "amount": 72.93, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1666667923, "completedDateTime": 1666742400, "amount": 72.93, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -12505,11 +12288,11 @@
       </c>
       <c r="G243" s="2" cm="1">
         <f t="array" aca="1" ref="G243" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>869780232178</v>
       </c>
       <c r="H243">
         <f t="shared" ca="1" si="15"/>
-        <v>1667013320</v>
+        <v>1667029425</v>
       </c>
       <c r="I243">
         <f t="shared" si="16"/>
@@ -12525,7 +12308,7 @@
       </c>
       <c r="L243" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1667013320, "completedDateTime": 1667088000, "amount": 211.3, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 869780232178, "submittedDateTime": 1667029425, "completedDateTime": 1667088000, "amount": 211.3, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -12543,11 +12326,11 @@
       </c>
       <c r="G244" s="2" cm="1">
         <f t="array" aca="1" ref="G244" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>450379505851</v>
       </c>
       <c r="H244">
         <f t="shared" ca="1" si="15"/>
-        <v>1667254138</v>
+        <v>1667204510</v>
       </c>
       <c r="I244">
         <f t="shared" si="16"/>
@@ -12563,7 +12346,7 @@
       </c>
       <c r="L244" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1667254138, "completedDateTime": 1667260800, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1667204510, "completedDateTime": 1667260800, "amount": -41, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -12581,11 +12364,11 @@
       </c>
       <c r="G245" s="2" cm="1">
         <f t="array" aca="1" ref="G245" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>810077691050</v>
       </c>
       <c r="H245">
         <f t="shared" ca="1" si="15"/>
-        <v>1667546867</v>
+        <v>1667579760</v>
       </c>
       <c r="I245">
         <f t="shared" si="16"/>
@@ -12601,7 +12384,7 @@
       </c>
       <c r="L245" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1667546867, "completedDateTime": 1667606400, "amount": 65.91, "memo": "ALTAFIBER CINBELL EPAY 513-5652210 OH" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1667579760, "completedDateTime": 1667606400, "amount": 65.91, "memo": "ALTAFIBER CINBELL EPAY 513-5652210 OH" },</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -12619,11 +12402,11 @@
       </c>
       <c r="G246" s="2" cm="1">
         <f t="array" aca="1" ref="G246" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>685109477442</v>
       </c>
       <c r="H246">
         <f t="shared" ca="1" si="15"/>
-        <v>1667588844</v>
+        <v>1667571657</v>
       </c>
       <c r="I246">
         <f t="shared" si="16"/>
@@ -12639,7 +12422,7 @@
       </c>
       <c r="L246" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1667588844, "completedDateTime": 1667606400, "amount": 11.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1667571657, "completedDateTime": 1667606400, "amount": 11.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -12657,11 +12440,11 @@
       </c>
       <c r="G247" s="2" cm="1">
         <f t="array" aca="1" ref="G247" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>317595283947</v>
+        <v>154068856018</v>
       </c>
       <c r="H247">
         <f t="shared" ca="1" si="15"/>
-        <v>1667611488</v>
+        <v>1667643869</v>
       </c>
       <c r="I247">
         <f t="shared" si="16"/>
@@ -12677,7 +12460,7 @@
       </c>
       <c r="L247" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 317595283947, "submittedDateTime": 1667611488, "completedDateTime": 1667692800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 154068856018, "submittedDateTime": 1667643869, "completedDateTime": 1667692800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -12695,11 +12478,11 @@
       </c>
       <c r="G248" s="2" cm="1">
         <f t="array" aca="1" ref="G248" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>796355214780</v>
+        <v>968412565877</v>
       </c>
       <c r="H248">
         <f t="shared" ca="1" si="15"/>
-        <v>1667729952</v>
+        <v>1667769818</v>
       </c>
       <c r="I248">
         <f t="shared" si="16"/>
@@ -12715,7 +12498,7 @@
       </c>
       <c r="L248" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 796355214780, "submittedDateTime": 1667729952, "completedDateTime": 1667779200, "amount": 67.05, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 968412565877, "submittedDateTime": 1667769818, "completedDateTime": 1667779200, "amount": 67.05, "memo": "WAL-MART #2250 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -12733,11 +12516,11 @@
       </c>
       <c r="G249" s="2" cm="1">
         <f t="array" aca="1" ref="G249" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>422842313902</v>
       </c>
       <c r="H249">
         <f t="shared" ca="1" si="15"/>
-        <v>1667695678</v>
+        <v>1667726422</v>
       </c>
       <c r="I249">
         <f t="shared" si="16"/>
@@ -12753,7 +12536,7 @@
       </c>
       <c r="L249" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1667695678, "completedDateTime": 1667779200, "amount": 17.75, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 422842313902, "submittedDateTime": 1667726422, "completedDateTime": 1667779200, "amount": 17.75, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -12771,11 +12554,11 @@
       </c>
       <c r="G250" s="2" cm="1">
         <f t="array" aca="1" ref="G250" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>455810450311</v>
       </c>
       <c r="H250">
         <f t="shared" ca="1" si="15"/>
-        <v>1667899579</v>
+        <v>1667921526</v>
       </c>
       <c r="I250">
         <f t="shared" si="16"/>
@@ -12791,7 +12574,7 @@
       </c>
       <c r="L250" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1667899579, "completedDateTime": 1667952000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1667921526, "completedDateTime": 1667952000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -12809,11 +12592,11 @@
       </c>
       <c r="G251" s="2" cm="1">
         <f t="array" aca="1" ref="G251" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>451100491187</v>
+        <v>198252465357</v>
       </c>
       <c r="H251">
         <f t="shared" ca="1" si="15"/>
-        <v>1667876236</v>
+        <v>1667883912</v>
       </c>
       <c r="I251">
         <f t="shared" si="16"/>
@@ -12829,7 +12612,7 @@
       </c>
       <c r="L251" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 451100491187, "submittedDateTime": 1667876236, "completedDateTime": 1667952000, "amount": 4.99, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 198252465357, "submittedDateTime": 1667883912, "completedDateTime": 1667952000, "amount": 4.99, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -12847,11 +12630,11 @@
       </c>
       <c r="G252" s="2" cm="1">
         <f t="array" aca="1" ref="G252" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>147583745557</v>
+        <v>1072336678888600</v>
       </c>
       <c r="H252">
         <f t="shared" ca="1" si="15"/>
-        <v>1667921144</v>
+        <v>1667947763</v>
       </c>
       <c r="I252">
         <f t="shared" si="16"/>
@@ -12867,7 +12650,7 @@
       </c>
       <c r="L252" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 147583745557, "submittedDateTime": 1667921144, "completedDateTime": 1667952000, "amount": 96.89, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 1072336678888600, "submittedDateTime": 1667947763, "completedDateTime": 1667952000, "amount": 96.89, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -12885,11 +12668,11 @@
       </c>
       <c r="G253" s="2" cm="1">
         <f t="array" aca="1" ref="G253" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>9960815475030200</v>
+        <v>306781755424</v>
       </c>
       <c r="H253">
         <f t="shared" ca="1" si="15"/>
-        <v>1668033156</v>
+        <v>1667984480</v>
       </c>
       <c r="I253">
         <f t="shared" si="16"/>
@@ -12905,7 +12688,7 @@
       </c>
       <c r="L253" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 9960815475030200, "submittedDateTime": 1668033156, "completedDateTime": 1668038400, "amount": 11.5, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1667984480, "completedDateTime": 1668038400, "amount": 11.5, "memo": "SQ *WILD SIDE EXPERIEN Burlington KY" },</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -12923,11 +12706,11 @@
       </c>
       <c r="G254" s="2" cm="1">
         <f t="array" aca="1" ref="G254" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>392343538980</v>
+        <v>685109477442</v>
       </c>
       <c r="H254">
         <f t="shared" ca="1" si="15"/>
-        <v>1668044973</v>
+        <v>1668052048</v>
       </c>
       <c r="I254">
         <f t="shared" si="16"/>
@@ -12943,7 +12726,7 @@
       </c>
       <c r="L254" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 392343538980, "submittedDateTime": 1668044973, "completedDateTime": 1668124800, "amount": -1237.89, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 685109477442, "submittedDateTime": 1668052048, "completedDateTime": 1668124800, "amount": -1237.89, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -12961,11 +12744,11 @@
       </c>
       <c r="G255" s="2" cm="1">
         <f t="array" aca="1" ref="G255" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>450379505851</v>
       </c>
       <c r="H255">
         <f t="shared" ca="1" si="15"/>
-        <v>1668098966</v>
+        <v>1668086872</v>
       </c>
       <c r="I255">
         <f t="shared" si="16"/>
@@ -12981,7 +12764,7 @@
       </c>
       <c r="L255" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1668098966, "completedDateTime": 1668124800, "amount": 21.6, "memo": "CHUY'S 039 FLORENCE KY" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1668086872, "completedDateTime": 1668124800, "amount": 21.6, "memo": "CHUY'S 039 FLORENCE KY" },</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -12999,11 +12782,11 @@
       </c>
       <c r="G256" s="2" cm="1">
         <f t="array" aca="1" ref="G256" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>905851799456</v>
+        <v>228410255662</v>
       </c>
       <c r="H256">
         <f t="shared" ca="1" si="15"/>
-        <v>1668190723</v>
+        <v>1668151365</v>
       </c>
       <c r="I256">
         <f t="shared" si="16"/>
@@ -13019,7 +12802,7 @@
       </c>
       <c r="L256" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 905851799456, "submittedDateTime": 1668190723, "completedDateTime": 1668211200, "amount": 75.44, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1668151365, "completedDateTime": 1668211200, "amount": 75.44, "memo": "PLAYSTATION NETWORK 800-345-7669 CA" },</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -13037,11 +12820,11 @@
       </c>
       <c r="G257" s="2" cm="1">
         <f t="array" aca="1" ref="G257" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>228410255662</v>
       </c>
       <c r="H257">
         <f t="shared" ca="1" si="15"/>
-        <v>1668339028</v>
+        <v>1668383409</v>
       </c>
       <c r="I257">
         <f t="shared" si="16"/>
@@ -13057,7 +12840,7 @@
       </c>
       <c r="L257" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1668339028, "completedDateTime": 1668384000, "amount": 66.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1668383409, "completedDateTime": 1668384000, "amount": 66.67, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -13075,11 +12858,11 @@
       </c>
       <c r="G258" s="2" cm="1">
         <f t="array" aca="1" ref="G258" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>983493971351</v>
+        <v>627541466323</v>
       </c>
       <c r="H258">
         <f t="shared" ca="1" si="15"/>
-        <v>1668550305</v>
+        <v>1668479072</v>
       </c>
       <c r="I258">
         <f t="shared" si="16"/>
@@ -13095,7 +12878,7 @@
       </c>
       <c r="L258" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>{ "accountNumber": 983493971351, "submittedDateTime": 1668550305, "completedDateTime": 1668556800, "amount": 94.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 627541466323, "submittedDateTime": 1668479072, "completedDateTime": 1668556800, "amount": 94.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -13113,11 +12896,11 @@
       </c>
       <c r="G259" s="2" cm="1">
         <f t="array" aca="1" ref="G259" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>891594573965</v>
+        <v>8215830979251800</v>
       </c>
       <c r="H259">
         <f t="shared" ref="H259:H281" ca="1" si="20">_xlfn.FLOOR.MATH((B259-DATE(1970,1,1)+RAND())*86400)</f>
-        <v>1668516602</v>
+        <v>1668486562</v>
       </c>
       <c r="I259">
         <f t="shared" ref="I259:I281" si="21">_xlfn.FLOOR.MATH((B259-DATE(1970,1,1)+1)*86400)</f>
@@ -13133,7 +12916,7 @@
       </c>
       <c r="L259" t="str">
         <f t="shared" ref="L259:L281" ca="1" si="24">"{ "&amp;CHAR(34) &amp;G$1&amp;CHAR(34) &amp;": "&amp;G259&amp; ", "&amp;CHAR(34) &amp;H$1&amp;CHAR(34) &amp;": "&amp;H259&amp; ", "&amp;CHAR(34) &amp;I$1&amp;CHAR(34) &amp;": "&amp;I259&amp; ", "&amp;CHAR(34) &amp;J$1&amp;CHAR(34) &amp;": "&amp;J259&amp; ", "&amp;CHAR(34) &amp;K$1&amp;CHAR(34) &amp;": "&amp;CHAR(34)&amp;K259&amp;CHAR(34) &amp;" },"</f>
-        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1668516602, "completedDateTime": 1668556800, "amount": 5.63, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 8215830979251800, "submittedDateTime": 1668486562, "completedDateTime": 1668556800, "amount": 5.63, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -13151,11 +12934,11 @@
       </c>
       <c r="G260" s="2" cm="1">
         <f t="array" aca="1" ref="G260" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>920756712810</v>
+        <v>373565734409</v>
       </c>
       <c r="H260">
         <f t="shared" ca="1" si="20"/>
-        <v>1668506893</v>
+        <v>1668518894</v>
       </c>
       <c r="I260">
         <f t="shared" si="21"/>
@@ -13171,7 +12954,7 @@
       </c>
       <c r="L260" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 920756712810, "submittedDateTime": 1668506893, "completedDateTime": 1668556800, "amount": 25.79, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 373565734409, "submittedDateTime": 1668518894, "completedDateTime": 1668556800, "amount": 25.79, "memo": "THE HOME DEPOT #3832 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -13189,11 +12972,11 @@
       </c>
       <c r="G261" s="2" cm="1">
         <f t="array" aca="1" ref="G261" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>254438198713</v>
       </c>
       <c r="H261">
         <f t="shared" ca="1" si="20"/>
-        <v>1669401662</v>
+        <v>1669401090</v>
       </c>
       <c r="I261">
         <f t="shared" si="21"/>
@@ -13209,7 +12992,7 @@
       </c>
       <c r="L261" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1669401662, "completedDateTime": 1669420800, "amount": 13, "memo": "CINCINNATI ZOO ONLINE 5132814700 OH" },</v>
+        <v>{ "accountNumber": 254438198713, "submittedDateTime": 1669401090, "completedDateTime": 1669420800, "amount": 13, "memo": "CINCINNATI ZOO ONLINE 5132814700 OH" },</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -13227,11 +13010,11 @@
       </c>
       <c r="G262" s="2" cm="1">
         <f t="array" aca="1" ref="G262" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>983493971351</v>
+        <v>228410255662</v>
       </c>
       <c r="H262">
         <f t="shared" ca="1" si="20"/>
-        <v>1669372585</v>
+        <v>1669341716</v>
       </c>
       <c r="I262">
         <f t="shared" si="21"/>
@@ -13247,7 +13030,7 @@
       </c>
       <c r="L262" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 983493971351, "submittedDateTime": 1669372585, "completedDateTime": 1669420800, "amount": 50.58, "memo": "THE PUB AT ROOKWOOD CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1669341716, "completedDateTime": 1669420800, "amount": 50.58, "memo": "THE PUB AT ROOKWOOD CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -13265,11 +13048,11 @@
       </c>
       <c r="G263" s="2" cm="1">
         <f t="array" aca="1" ref="G263" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>880440266700</v>
+        <v>771519988061</v>
       </c>
       <c r="H263">
         <f t="shared" ca="1" si="20"/>
-        <v>1669468063</v>
+        <v>1669446932</v>
       </c>
       <c r="I263">
         <f t="shared" si="21"/>
@@ -13285,7 +13068,7 @@
       </c>
       <c r="L263" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 880440266700, "submittedDateTime": 1669468063, "completedDateTime": 1669507200, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 771519988061, "submittedDateTime": 1669446932, "completedDateTime": 1669507200, "amount": 12.99, "memo": "PENN STATION 10 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -13303,11 +13086,11 @@
       </c>
       <c r="G264" s="2" cm="1">
         <f t="array" aca="1" ref="G264" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>891594573965</v>
+        <v>590761751601</v>
       </c>
       <c r="H264">
         <f t="shared" ca="1" si="20"/>
-        <v>1669730672</v>
+        <v>1669758041</v>
       </c>
       <c r="I264">
         <f t="shared" si="21"/>
@@ -13323,7 +13106,7 @@
       </c>
       <c r="L264" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 891594573965, "submittedDateTime": 1669730672, "completedDateTime": 1669766400, "amount": 9, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
+        <v>{ "accountNumber": 590761751601, "submittedDateTime": 1669758041, "completedDateTime": 1669766400, "amount": 9, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -13341,11 +13124,11 @@
       </c>
       <c r="G265" s="2" cm="1">
         <f t="array" aca="1" ref="G265" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>373565734409</v>
       </c>
       <c r="H265">
         <f t="shared" ca="1" si="20"/>
-        <v>1669681571</v>
+        <v>1669688123</v>
       </c>
       <c r="I265">
         <f t="shared" si="21"/>
@@ -13361,7 +13144,7 @@
       </c>
       <c r="L265" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1669681571, "completedDateTime": 1669766400, "amount": 11, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
+        <v>{ "accountNumber": 373565734409, "submittedDateTime": 1669688123, "completedDateTime": 1669766400, "amount": 11, "memo": "SQ *BAM BAM'S Erlanger KY" },</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -13379,11 +13162,11 @@
       </c>
       <c r="G266" s="2" cm="1">
         <f t="array" aca="1" ref="G266" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>841242350153</v>
+        <v>228410255662</v>
       </c>
       <c r="H266">
         <f t="shared" ca="1" si="20"/>
-        <v>1669702557</v>
+        <v>1669743233</v>
       </c>
       <c r="I266">
         <f t="shared" si="21"/>
@@ -13399,7 +13182,7 @@
       </c>
       <c r="L266" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 841242350153, "submittedDateTime": 1669702557, "completedDateTime": 1669766400, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1669743233, "completedDateTime": 1669766400, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -13417,11 +13200,11 @@
       </c>
       <c r="G267" s="2" cm="1">
         <f t="array" aca="1" ref="G267" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>810077691050</v>
       </c>
       <c r="H267">
         <f t="shared" ca="1" si="20"/>
-        <v>1669837494</v>
+        <v>1669819263</v>
       </c>
       <c r="I267">
         <f t="shared" si="21"/>
@@ -13437,7 +13220,7 @@
       </c>
       <c r="L267" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1669837494, "completedDateTime": 1669852800, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1669819263, "completedDateTime": 1669852800, "amount": 5.51, "memo": "ICI*FEECITY OF NORWOOD 866-342-9266 MA" },</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -13455,11 +13238,11 @@
       </c>
       <c r="G268" s="2" cm="1">
         <f t="array" aca="1" ref="G268" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>702136833361</v>
       </c>
       <c r="H268">
         <f t="shared" ca="1" si="20"/>
-        <v>1669812116</v>
+        <v>1669838626</v>
       </c>
       <c r="I268">
         <f t="shared" si="21"/>
@@ -13475,7 +13258,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1669812116, "completedDateTime": 1669852800, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1669838626, "completedDateTime": 1669852800, "amount": 220.48, "memo": "CITY OF NORWOOD 513-458-4500 OH" },</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -13493,11 +13276,11 @@
       </c>
       <c r="G269" s="2" cm="1">
         <f t="array" aca="1" ref="G269" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>384302539441</v>
       </c>
       <c r="H269">
         <f t="shared" ca="1" si="20"/>
-        <v>1669768921</v>
+        <v>1669799280</v>
       </c>
       <c r="I269">
         <f t="shared" si="21"/>
@@ -13513,7 +13296,7 @@
       </c>
       <c r="L269" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1669768921, "completedDateTime": 1669852800, "amount": 300.28, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
+        <v>{ "accountNumber": 384302539441, "submittedDateTime": 1669799280, "completedDateTime": 1669852800, "amount": 300.28, "memo": "SPI*DUKE-ENERGY 800-777-9898 NC" },</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -13531,11 +13314,11 @@
       </c>
       <c r="G270" s="2" cm="1">
         <f t="array" aca="1" ref="G270" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>455810450311</v>
       </c>
       <c r="H270">
         <f t="shared" ca="1" si="20"/>
-        <v>1670158119</v>
+        <v>1670193521</v>
       </c>
       <c r="I270">
         <f t="shared" si="21"/>
@@ -13551,7 +13334,7 @@
       </c>
       <c r="L270" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1670158119, "completedDateTime": 1670198400, "amount": 21.56, "memo": "SQ *QUEEN CITY NOVELTY Cincinnati OH" },</v>
+        <v>{ "accountNumber": 455810450311, "submittedDateTime": 1670193521, "completedDateTime": 1670198400, "amount": 21.56, "memo": "SQ *QUEEN CITY NOVELTY Cincinnati OH" },</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -13569,11 +13352,11 @@
       </c>
       <c r="G271" s="2" cm="1">
         <f t="array" aca="1" ref="G271" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>199201767490</v>
+        <v>450379505851</v>
       </c>
       <c r="H271">
         <f t="shared" ca="1" si="20"/>
-        <v>1670184071</v>
+        <v>1670118946</v>
       </c>
       <c r="I271">
         <f t="shared" si="21"/>
@@ -13589,7 +13372,7 @@
       </c>
       <c r="L271" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 199201767490, "submittedDateTime": 1670184071, "completedDateTime": 1670198400, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 450379505851, "submittedDateTime": 1670118946, "completedDateTime": 1670198400, "amount": 18.15, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -13607,11 +13390,11 @@
       </c>
       <c r="G272" s="2" cm="1">
         <f t="array" aca="1" ref="G272" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>697694136927</v>
+        <v>8755129424701580</v>
       </c>
       <c r="H272">
         <f t="shared" ca="1" si="20"/>
-        <v>1670125995</v>
+        <v>1670144125</v>
       </c>
       <c r="I272">
         <f t="shared" si="21"/>
@@ -13627,7 +13410,7 @@
       </c>
       <c r="L272" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 697694136927, "submittedDateTime": 1670125995, "completedDateTime": 1670198400, "amount": 59.26, "memo": "SQ *DJC CONCESSIONS LL Cincinnati OH" },</v>
+        <v>{ "accountNumber": 8755129424701580, "submittedDateTime": 1670144125, "completedDateTime": 1670198400, "amount": 59.26, "memo": "SQ *DJC CONCESSIONS LL Cincinnati OH" },</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -13645,11 +13428,11 @@
       </c>
       <c r="G273" s="2" cm="1">
         <f t="array" aca="1" ref="G273" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>306781755424</v>
       </c>
       <c r="H273">
         <f t="shared" ca="1" si="20"/>
-        <v>1670227982</v>
+        <v>1670271633</v>
       </c>
       <c r="I273">
         <f t="shared" si="21"/>
@@ -13665,7 +13448,7 @@
       </c>
       <c r="L273" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1670227982, "completedDateTime": 1670284800, "amount": 10.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
+        <v>{ "accountNumber": 306781755424, "submittedDateTime": 1670271633, "completedDateTime": 1670284800, "amount": 10.25, "memo": "DD DOORDASH JERSEYMIK 8559731040 CA null XXXXXXXXXXXX5584" },</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -13683,11 +13466,11 @@
       </c>
       <c r="G274" s="2" cm="1">
         <f t="array" aca="1" ref="G274" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>239639548370</v>
+        <v>702136833361</v>
       </c>
       <c r="H274">
         <f t="shared" ca="1" si="20"/>
-        <v>1670283505</v>
+        <v>1670248371</v>
       </c>
       <c r="I274">
         <f t="shared" si="21"/>
@@ -13703,7 +13486,7 @@
       </c>
       <c r="L274" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 239639548370, "submittedDateTime": 1670283505, "completedDateTime": 1670284800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
+        <v>{ "accountNumber": 702136833361, "submittedDateTime": 1670248371, "completedDateTime": 1670284800, "amount": 12.93, "memo": "GOOGLE *YouTubePremium 650-253-0000 CA" },</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -13721,11 +13504,11 @@
       </c>
       <c r="G275" s="2" cm="1">
         <f t="array" aca="1" ref="G275" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>810077691050</v>
       </c>
       <c r="H275">
         <f t="shared" ca="1" si="20"/>
-        <v>1670311232</v>
+        <v>1670339528</v>
       </c>
       <c r="I275">
         <f t="shared" si="21"/>
@@ -13741,7 +13524,7 @@
       </c>
       <c r="L275" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1670311232, "completedDateTime": 1670371200, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1670339528, "completedDateTime": 1670371200, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -13759,11 +13542,11 @@
       </c>
       <c r="G276" s="2" cm="1">
         <f t="array" aca="1" ref="G276" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>124896572843</v>
+        <v>697163844059</v>
       </c>
       <c r="H276">
         <f t="shared" ca="1" si="20"/>
-        <v>1670458686</v>
+        <v>1670541208</v>
       </c>
       <c r="I276">
         <f t="shared" si="21"/>
@@ -13779,7 +13562,7 @@
       </c>
       <c r="L276" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 124896572843, "submittedDateTime": 1670458686, "completedDateTime": 1670544000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1670541208, "completedDateTime": 1670544000, "amount": 50, "memo": "VISIBLE 8663313527 CO" },</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -13797,11 +13580,11 @@
       </c>
       <c r="G277" s="2" cm="1">
         <f t="array" aca="1" ref="G277" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>738295537013</v>
+        <v>198252465357</v>
       </c>
       <c r="H277">
         <f t="shared" ca="1" si="20"/>
-        <v>1670620208</v>
+        <v>1670596204</v>
       </c>
       <c r="I277">
         <f t="shared" si="21"/>
@@ -13817,7 +13600,7 @@
       </c>
       <c r="L277" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 738295537013, "submittedDateTime": 1670620208, "completedDateTime": 1670630400, "amount": -912.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
+        <v>{ "accountNumber": 198252465357, "submittedDateTime": 1670596204, "completedDateTime": 1670630400, "amount": -912.5, "memo": "ONLINE PAYMENT, THANK YOU" },</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -13835,11 +13618,11 @@
       </c>
       <c r="G278" s="2" cm="1">
         <f t="array" aca="1" ref="G278" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>463566446195</v>
+        <v>228410255662</v>
       </c>
       <c r="H278">
         <f t="shared" ca="1" si="20"/>
-        <v>1670731945</v>
+        <v>1670792146</v>
       </c>
       <c r="I278">
         <f t="shared" si="21"/>
@@ -13855,7 +13638,7 @@
       </c>
       <c r="L278" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 463566446195, "submittedDateTime": 1670731945, "completedDateTime": 1670803200, "amount": 11.98, "memo": "TACO BELL 32033 CINCINNATI OH" },</v>
+        <v>{ "accountNumber": 228410255662, "submittedDateTime": 1670792146, "completedDateTime": 1670803200, "amount": 11.98, "memo": "TACO BELL 32033 CINCINNATI OH" },</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -13873,11 +13656,11 @@
       </c>
       <c r="G279" s="2" cm="1">
         <f t="array" aca="1" ref="G279" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>6825686927341160</v>
+        <v>810077691050</v>
       </c>
       <c r="H279">
         <f t="shared" ca="1" si="20"/>
-        <v>1670793982</v>
+        <v>1670733133</v>
       </c>
       <c r="I279">
         <f t="shared" si="21"/>
@@ -13893,7 +13676,7 @@
       </c>
       <c r="L279" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 6825686927341160, "submittedDateTime": 1670793982, "completedDateTime": 1670803200, "amount": 36.78, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
+        <v>{ "accountNumber": 810077691050, "submittedDateTime": 1670733133, "completedDateTime": 1670803200, "amount": 36.78, "memo": "CANCUN MEXICAN BAR AND NORWOOD OH" },</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -13911,11 +13694,11 @@
       </c>
       <c r="G280" s="2" cm="1">
         <f t="array" aca="1" ref="G280" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>345064774916</v>
+        <v>697163844059</v>
       </c>
       <c r="H280">
         <f t="shared" ca="1" si="20"/>
-        <v>1670952657</v>
+        <v>1670916978</v>
       </c>
       <c r="I280">
         <f t="shared" si="21"/>
@@ -13931,7 +13714,7 @@
       </c>
       <c r="L280" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 345064774916, "submittedDateTime": 1670952657, "completedDateTime": 1670976000, "amount": 72.51, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
+        <v>{ "accountNumber": 697163844059, "submittedDateTime": 1670916978, "completedDateTime": 1670976000, "amount": 72.51, "memo": "Tesla Insurance Servic Fremont CA null XXXXXXXXXXXX3777" },</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -13949,11 +13732,11 @@
       </c>
       <c r="G281" s="2" cm="1">
         <f t="array" aca="1" ref="G281" ca="1">INDEX(INDIRECT(helper!$C$7),   _xlfn.CEILING.MATH(RAND()*COUNT(INDIRECT(helper!$C$7))))</f>
-        <v>201485841067</v>
+        <v>398225850477</v>
       </c>
       <c r="H281">
         <f t="shared" ca="1" si="20"/>
-        <v>1670959410</v>
+        <v>1670905371</v>
       </c>
       <c r="I281">
         <f t="shared" si="21"/>
@@ -13969,7 +13752,7 @@
       </c>
       <c r="L281" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>{ "accountNumber": 201485841067, "submittedDateTime": 1670959410, "completedDateTime": 1670976000, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
+        <v>{ "accountNumber": 398225850477, "submittedDateTime": 1670905371, "completedDateTime": 1670976000, "amount": 112.87, "memo": "HELLOFRESH 646-846-3663 NY" },</v>
       </c>
     </row>
   </sheetData>
